--- a/ЕМПІ/LAB4WINWOWS.xlsx
+++ b/ЕМПІ/LAB4WINWOWS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ya\study\univ\2к\2с\емпі\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Labs\ЕМПІ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE349F01-2DC7-4AF5-B1AE-3BFA281B972C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACF98EE-5E00-425A-AAC7-2136E6378C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="23205" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Частина 1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="Додаток" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Частина 1'!$B$6:$B$35</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Частина 1'!$H$6:$H$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Частина 2'!$H$5:$H$34</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Частина 1'!$H$6:$H$35</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Частина 1'!$B$6:$B$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -218,13 +221,7 @@
     <t>Частина 1. Первинний аналіз метрик</t>
   </si>
   <si>
-    <t>LOC</t>
-  </si>
-  <si>
     <t>NOP</t>
-  </si>
-  <si>
-    <t>HIT</t>
   </si>
   <si>
     <t>Прямі метрики</t>
@@ -341,9 +338,6 @@
     <t>Частина 2. Побудова кореляційних полів пар прямих та непрямих метрик</t>
   </si>
   <si>
-    <t>FOUT</t>
-  </si>
-  <si>
     <t>NOC</t>
   </si>
   <si>
@@ -353,7 +347,16 @@
     <t>TCC</t>
   </si>
   <si>
-    <t>BOvR</t>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>NDD</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>PNAS</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -519,9 +525,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -539,7 +548,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -613,7 +622,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -655,64 +664,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1305</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1243</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1846</c:v>
+                  <c:v>20098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>930</c:v>
+                  <c:v>21220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1272</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1006</c:v>
+                  <c:v>5541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1395</c:v>
+                  <c:v>5043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>726</c:v>
+                  <c:v>7064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>412</c:v>
+                  <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1471</c:v>
+                  <c:v>67923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>770</c:v>
+                  <c:v>62274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2199</c:v>
+                  <c:v>2475</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2399</c:v>
+                  <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2002</c:v>
+                  <c:v>3160</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1043</c:v>
+                  <c:v>34563</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>830</c:v>
+                  <c:v>67345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>471</c:v>
+                  <c:v>23453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>662</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157</c:v>
+                  <c:v>67700</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>568</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,64 +733,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.254</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48199999999999998</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52900000000000003</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.58599999999999997</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39400000000000002</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.54300000000000004</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299744127"/>
@@ -921,7 +930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2131357231"/>
@@ -969,7 +978,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -983,7 +992,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1073,7 +1082,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1153,7 +1162,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="uk-UA"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1179,64 +1188,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>4.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>7.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93</c:v>
+                  <c:v>6.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170</c:v>
+                  <c:v>9.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>267</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>271</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>138</c:v>
+                  <c:v>4.54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89</c:v>
+                  <c:v>4.42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112</c:v>
+                  <c:v>6.51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>4.3499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>57</c:v>
+                  <c:v>5.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,64 +1257,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>2.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.254</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48199999999999998</c:v>
+                  <c:v>2.63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52900000000000003</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.58599999999999997</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.39400000000000002</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>2.4500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.39</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.35</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.54300000000000004</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.53800000000000003</c:v>
+                  <c:v>2.2799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,7 +1392,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299744127"/>
@@ -1445,7 +1454,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2131357231"/>
@@ -1493,7 +1502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1507,7 +1516,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1597,7 +1606,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1677,7 +1686,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="uk-UA"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1689,64 +1698,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.7331972651065695</c:v>
+                  <c:v>0.23552844690754896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6821450763738317</c:v>
+                  <c:v>0.69548167649019743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7715874808812553</c:v>
+                  <c:v>0.59549622182557416</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4166405073382811</c:v>
+                  <c:v>0.78746047451841505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.725094521081469</c:v>
+                  <c:v>0.40823996531184958</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3820170425748683</c:v>
+                  <c:v>0.90200289135072942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.725094521081469</c:v>
+                  <c:v>0.48429983934678589</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1172712956557642</c:v>
+                  <c:v>1.0145205387579237</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1172712956557642</c:v>
+                  <c:v>0.41497334797081797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8639173769578605</c:v>
+                  <c:v>1.0253058652647702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9689496809813425</c:v>
+                  <c:v>0.79028516403324167</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.230704313612569</c:v>
+                  <c:v>0.96142109406644827</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.426673888021373</c:v>
+                  <c:v>1.2810333672477277</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4331295175804857</c:v>
+                  <c:v>0.68033551341456322</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.909020854211156</c:v>
+                  <c:v>0.85125834871907524</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1401936785786311</c:v>
+                  <c:v>0.66651798055488087</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9498777040368747</c:v>
+                  <c:v>0.65513843481138212</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0496056125949731</c:v>
+                  <c:v>0.82020145948564016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3242824552976926</c:v>
+                  <c:v>0.64836001098093154</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7566361082458481</c:v>
+                  <c:v>0.71767050300226209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,64 +1767,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.64781748188863753</c:v>
+                  <c:v>0.35410843914740098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.70996538863748193</c:v>
+                  <c:v>0.52374646681156456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45099673797421219</c:v>
+                  <c:v>0.54406804435027567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.41680122603137726</c:v>
+                  <c:v>0.34830486304816066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.63042787502502384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.81530856918240124</c:v>
+                  <c:v>0.20139712432045151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>0.38560627359831223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.23507701535011155</c:v>
+                  <c:v>0.43616264704075602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.20134935455473107</c:v>
+                  <c:v>0.23044892137827397</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.31336373073770663</c:v>
+                  <c:v>0.1903316981702915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.25963731050575611</c:v>
+                  <c:v>0.30749603791321289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.16367588429324834</c:v>
+                  <c:v>0.20411998265592479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.30627305107635305</c:v>
+                  <c:v>0.38021124171160603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.17392519729917361</c:v>
+                  <c:v>0.40654018043395523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.19382002601611281</c:v>
+                  <c:v>0.36361197989214433</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.30980391997148632</c:v>
+                  <c:v>0.25527250510330607</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.34678748622465638</c:v>
+                  <c:v>0.50514997831990605</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.19178902707577791</c:v>
+                  <c:v>0.35024801833416286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.19517932127883766</c:v>
+                  <c:v>0.37657695705651195</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.23582386760966931</c:v>
+                  <c:v>0.31175386105575426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,7 +1902,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299744127"/>
@@ -1955,7 +1964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2131357231"/>
@@ -2003,7 +2012,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2017,7 +2026,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2091,7 +2100,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2171,7 +2180,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="uk-UA"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2183,64 +2192,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>4.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>7.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53</c:v>
+                  <c:v>2.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93</c:v>
+                  <c:v>6.07</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170</c:v>
+                  <c:v>9.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>267</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>271</c:v>
+                  <c:v>4.6900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>138</c:v>
+                  <c:v>4.54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89</c:v>
+                  <c:v>4.42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>112</c:v>
+                  <c:v>6.51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>4.3499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>57</c:v>
+                  <c:v>5.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2252,64 +2261,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-0.64781748188863753</c:v>
+                  <c:v>0.35410843914740098</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.70996538863748193</c:v>
+                  <c:v>0.52374646681156456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45099673797421219</c:v>
+                  <c:v>0.54406804435027567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.41680122603137726</c:v>
+                  <c:v>0.34830486304816066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1</c:v>
+                  <c:v>0.63042787502502384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.81530856918240124</c:v>
+                  <c:v>0.20139712432045151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1</c:v>
+                  <c:v>0.38560627359831223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.23507701535011155</c:v>
+                  <c:v>0.43616264704075602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.20134935455473107</c:v>
+                  <c:v>0.23044892137827397</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.31336373073770663</c:v>
+                  <c:v>0.1903316981702915</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.25963731050575611</c:v>
+                  <c:v>0.30749603791321289</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.16367588429324834</c:v>
+                  <c:v>0.20411998265592479</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.30627305107635305</c:v>
+                  <c:v>0.38021124171160603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.17392519729917361</c:v>
+                  <c:v>0.40654018043395523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.19382002601611281</c:v>
+                  <c:v>0.36361197989214433</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.30980391997148632</c:v>
+                  <c:v>0.25527250510330607</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.34678748622465638</c:v>
+                  <c:v>0.50514997831990605</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.19178902707577791</c:v>
+                  <c:v>0.35024801833416286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.19517932127883766</c:v>
+                  <c:v>0.37657695705651195</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.23582386760966931</c:v>
+                  <c:v>0.31175386105575426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,7 +2396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299744127"/>
@@ -2449,7 +2458,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2131357231"/>
@@ -2497,7 +2506,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2513,7 +2522,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2595,7 +2604,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8763,15 +8772,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>173272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>313083</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -8807,8 +8816,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10591800" y="739140"/>
-              <a:ext cx="4572000" cy="3832860"/>
+              <a:off x="10510631" y="744772"/>
+              <a:ext cx="4595191" cy="3992880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8827,9 +8836,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="uk-UA" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта диаграмма недоступна в вашей версии Excel.
+Изменение этой фигуры или сохранение книги в другом формате приведет к остаточному повреждению диаграммы.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9045,8 +9054,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15465767" y="717459"/>
-              <a:ext cx="4575503" cy="3835816"/>
+              <a:off x="15332417" y="740319"/>
+              <a:ext cx="4575503" cy="3995836"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9065,9 +9074,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="uk-UA" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта диаграмма недоступна в вашей версии Excel.
+Изменение этой фигуры или сохранение книги в другом формате приведет к остаточному повреждению диаграммы.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -13540,65 +13549,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -13607,22 +13616,22 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B5, IF($C$3=2,Додаток!$C5,IF($C$3=3,Додаток!$D5,IF($C$3=4,Додаток!$E5,IF($C$3=5,Додаток!$F5,IF($C$3=6,Додаток!$H5,IF($C$3=7,Додаток!$I5,IF($C$3=8,Додаток!$J5,IF($C$3=9,Додаток!$K5,IF($C$3=10,Додаток!$L5))))))))))</f>
-        <v>1305</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <f t="shared" ref="C6:C25" si="0">B6-$O$8</f>
-        <v>169.65000000000009</v>
+        <v>-4.05</v>
       </c>
       <c r="D6">
         <f>POWER(C6,2)</f>
-        <v>28781.12250000003</v>
+        <v>16.4025</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E25" si="1">ABS(C6)/$O$10</f>
-        <v>0.27649808074918719</v>
+        <v>1.7232195069900644</v>
       </c>
       <c r="G6" t="b">
         <f t="shared" ref="G6:G25" si="2">IF(E6&lt;1.96,TRUE,FALSE)</f>
@@ -13630,47 +13639,47 @@
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H25" si="3">IF(G6=TRUE,B6,NA())</f>
-        <v>1305</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I25" si="4">IF(G6=TRUE,B6-$O$16,0)</f>
-        <v>236.15789473684208</v>
+        <v>-4.05</v>
       </c>
       <c r="J6">
         <f>POWER(I6,2)</f>
-        <v>55770.551246537383</v>
+        <v>16.4025</v>
       </c>
       <c r="K6">
         <f>POWER(I6,3)</f>
-        <v>13170655.970695432</v>
+        <v>-66.43012499999999</v>
       </c>
       <c r="L6">
         <f>POWER(I6,4)</f>
-        <v>3110354386.3426523</v>
+        <v>269.04200624999999</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B6, IF($C$3=2,Додаток!$C6,IF($C$3=3,Додаток!$D6,IF($C$3=4,Додаток!$E6,IF($C$3=5,Додаток!$F6,IF($C$3=6,Додаток!$H6,IF($C$3=7,Додаток!$I6,IF($C$3=8,Додаток!$J6,IF($C$3=9,Додаток!$K6,IF($C$3=10,Додаток!$L6))))))))))</f>
-        <v>1243</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>107.65000000000009</v>
+        <v>2.95</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D25" si="5">POWER(C7,2)</f>
-        <v>11588.522500000019</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.17544956317506638</v>
+        <v>1.2551845791656027</v>
       </c>
       <c r="G7" t="b">
         <f t="shared" si="2"/>
@@ -13678,41 +13687,41 @@
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>1243</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>174.15789473684208</v>
+        <v>2.95</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J25" si="6">POWER(I7,2)</f>
-        <v>30330.972299168967</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:K25" si="7">POWER(I7,3)</f>
-        <v>5282378.2809447423</v>
+        <v>25.672375000000002</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:L25" si="8">POWER(I7,4)</f>
-        <v>919967880.61295521</v>
+        <v>75.733506250000005</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B7, IF($C$3=2,Додаток!$C7,IF($C$3=3,Додаток!$D7,IF($C$3=4,Додаток!$E7,IF($C$3=5,Додаток!$F7,IF($C$3=6,Додаток!$H7,IF($C$3=7,Додаток!$I7,IF($C$3=8,Додаток!$J7,IF($C$3=9,Додаток!$K7,IF($C$3=10,Додаток!$L7))))))))))</f>
-        <v>1846</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>710.65000000000009</v>
+        <v>2.95</v>
       </c>
       <c r="D8">
         <f t="shared" si="5"/>
-        <v>505023.4225000001</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>1.1582278873233705</v>
+        <v>1.2551845791656027</v>
       </c>
       <c r="G8" t="b">
         <f t="shared" si="2"/>
@@ -13720,45 +13729,45 @@
       </c>
       <c r="H8">
         <f>IF(G8=TRUE,B8,NA())</f>
-        <v>1846</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>777.15789473684208</v>
+        <v>2.95</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>603974.39335180051</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="K8">
         <f t="shared" si="7"/>
-        <v>469383468.01224661</v>
+        <v>25.672375000000002</v>
       </c>
       <c r="L8">
         <f t="shared" si="8"/>
-        <v>364785067824.67542</v>
+        <v>75.733506250000005</v>
       </c>
       <c r="O8">
         <f>SUM($B$6:$B$25)/$O$6</f>
-        <v>1135.3499999999999</v>
+        <v>6.05</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B8, IF($C$3=2,Додаток!$C8,IF($C$3=3,Додаток!$D8,IF($C$3=4,Додаток!$E8,IF($C$3=5,Додаток!$F8,IF($C$3=6,Додаток!$H8,IF($C$3=7,Додаток!$I8,IF($C$3=8,Додаток!$J8,IF($C$3=9,Додаток!$K8,IF($C$3=10,Додаток!$L8))))))))))</f>
-        <v>930</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>-205.34999999999991</v>
+        <v>-1.0499999999999998</v>
       </c>
       <c r="D9">
         <f t="shared" si="5"/>
-        <v>42168.622499999961</v>
+        <v>1.1024999999999996</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.33468246909428551</v>
+        <v>0.44676061292335001</v>
       </c>
       <c r="G9" t="b">
         <f t="shared" si="2"/>
@@ -13766,45 +13775,45 @@
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>930</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>-138.84210526315792</v>
+        <v>-1.0499999999999998</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>19277.130193905825</v>
+        <v>1.1024999999999996</v>
       </c>
       <c r="K9">
         <f t="shared" si="7"/>
-        <v>-2676477.3395538721</v>
+        <v>-1.1576249999999995</v>
       </c>
       <c r="L9">
         <f t="shared" si="8"/>
-        <v>371607748.51279563</v>
+        <v>1.2155062499999991</v>
       </c>
       <c r="O9">
         <f>SUM($D$6:$D$25)/($O$6-1)</f>
-        <v>376464.02894736844</v>
+        <v>5.5236842105263166</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B9, IF($C$3=2,Додаток!$C9,IF($C$3=3,Додаток!$D9,IF($C$3=4,Додаток!$E9,IF($C$3=5,Додаток!$F9,IF($C$3=6,Додаток!$H9,IF($C$3=7,Додаток!$I9,IF($C$3=8,Додаток!$J9,IF($C$3=9,Додаток!$K9,IF($C$3=10,Додаток!$L9))))))))))</f>
-        <v>1272</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>136.65000000000009</v>
+        <v>-3.05</v>
       </c>
       <c r="D10">
         <f t="shared" si="5"/>
-        <v>18673.222500000025</v>
+        <v>9.3024999999999984</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.22271419236296158</v>
+        <v>1.2977332089678262</v>
       </c>
       <c r="G10" t="b">
         <f t="shared" si="2"/>
@@ -13812,48 +13821,48 @@
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>1272</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>203.15789473684208</v>
+        <v>-3.05</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
-        <v>41273.13019390581</v>
+        <v>9.3024999999999984</v>
       </c>
       <c r="K10">
         <f t="shared" si="7"/>
-        <v>8384962.239393495</v>
+        <v>-28.372624999999992</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>1703471276.0030994</v>
+        <v>86.536506249999974</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10">
         <f>SQRT($O$9)</f>
-        <v>613.56664588891113</v>
+        <v>2.3502519461807316</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B10, IF($C$3=2,Додаток!$C10,IF($C$3=3,Додаток!$D10,IF($C$3=4,Додаток!$E10,IF($C$3=5,Додаток!$F10,IF($C$3=6,Додаток!$H10,IF($C$3=7,Додаток!$I10,IF($C$3=8,Додаток!$J10,IF($C$3=9,Додаток!$K10,IF($C$3=10,Додаток!$L10))))))))))</f>
-        <v>1006</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>-129.34999999999991</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="D11">
         <f t="shared" si="5"/>
-        <v>16731.422499999975</v>
+        <v>4.2024999999999997</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>0.21081654432600835</v>
+        <v>0.87224691094558815</v>
       </c>
       <c r="G11" t="b">
         <f t="shared" si="2"/>
@@ -13861,41 +13870,41 @@
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>1006</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>-62.842105263157919</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
-        <v>3949.1301939058203</v>
+        <v>4.2024999999999997</v>
       </c>
       <c r="K11">
         <f t="shared" si="7"/>
-        <v>-248171.65534334481</v>
+        <v>-8.615124999999999</v>
       </c>
       <c r="L11">
         <f t="shared" si="8"/>
-        <v>15595629.288418623</v>
+        <v>17.661006249999996</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B11, IF($C$3=2,Додаток!$C11,IF($C$3=3,Додаток!$D11,IF($C$3=4,Додаток!$E11,IF($C$3=5,Додаток!$F11,IF($C$3=6,Додаток!$H11,IF($C$3=7,Додаток!$I11,IF($C$3=8,Додаток!$J11,IF($C$3=9,Додаток!$K11,IF($C$3=10,Додаток!$L11))))))))))</f>
-        <v>1395</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>259.65000000000009</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="D12">
         <f t="shared" si="5"/>
-        <v>67418.122500000041</v>
+        <v>3.8025000000000007</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>0.42318141271162063</v>
+        <v>0.82969828114336452</v>
       </c>
       <c r="G12" t="b">
         <f t="shared" si="2"/>
@@ -13903,46 +13912,46 @@
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>1395</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>326.15789473684208</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
-        <v>106378.97229916896</v>
+        <v>3.8025000000000007</v>
       </c>
       <c r="K12">
         <f t="shared" si="7"/>
-        <v>34696341.64936579</v>
+        <v>7.4148750000000021</v>
       </c>
       <c r="L12">
         <f t="shared" si="8"/>
-        <v>11316485747.427357</v>
+        <v>14.459006250000005</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B12, IF($C$3=2,Додаток!$C12,IF($C$3=3,Додаток!$D12,IF($C$3=4,Додаток!$E12,IF($C$3=5,Додаток!$F12,IF($C$3=6,Додаток!$H12,IF($C$3=7,Додаток!$I12,IF($C$3=8,Додаток!$J12,IF($C$3=9,Додаток!$K12,IF($C$3=10,Додаток!$L12))))))))))</f>
-        <v>726</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>-409.34999999999991</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="D13">
         <f t="shared" si="5"/>
-        <v>167567.42249999993</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>0.66716468820913466</v>
+        <v>0.40421198312112633</v>
       </c>
       <c r="G13" t="b">
         <f t="shared" si="2"/>
@@ -13950,41 +13959,41 @@
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>726</v>
+        <v>7</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>-342.84210526315792</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>117540.70914127426</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
-        <v>-40297904.176118977</v>
+        <v>0.85737500000000044</v>
       </c>
       <c r="L13">
         <f t="shared" si="8"/>
-        <v>13815818305.433634</v>
+        <v>0.81450625000000054</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B13, IF($C$3=2,Додаток!$C13,IF($C$3=3,Додаток!$D13,IF($C$3=4,Додаток!$E13,IF($C$3=5,Додаток!$F13,IF($C$3=6,Додаток!$H13,IF($C$3=7,Додаток!$I13,IF($C$3=8,Додаток!$J13,IF($C$3=9,Додаток!$K13,IF($C$3=10,Додаток!$L13))))))))))</f>
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>-723.34999999999991</v>
+        <v>-3.05</v>
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
-        <v>523235.22249999986</v>
+        <v>9.3024999999999984</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>1.1789265352780691</v>
+        <v>1.2977332089678262</v>
       </c>
       <c r="G14" t="b">
         <f t="shared" si="2"/>
@@ -13992,48 +14001,48 @@
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>-656.84210526315792</v>
+        <v>-3.05</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>431441.55124653742</v>
+        <v>9.3024999999999984</v>
       </c>
       <c r="K14">
         <f t="shared" si="7"/>
-        <v>-283388976.81877828</v>
+        <v>-28.372624999999992</v>
       </c>
       <c r="L14">
         <f t="shared" si="8"/>
-        <v>186141812142.01859</v>
+        <v>86.536506249999974</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14">
         <f>COUNTIF($G$6:$G$35, TRUE)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B14, IF($C$3=2,Додаток!$C14,IF($C$3=3,Додаток!$D14,IF($C$3=4,Додаток!$E14,IF($C$3=5,Додаток!$F14,IF($C$3=6,Додаток!$H14,IF($C$3=7,Додаток!$I14,IF($C$3=8,Додаток!$J14,IF($C$3=9,Додаток!$K14,IF($C$3=10,Додаток!$L14))))))))))</f>
-        <v>1471</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>335.65000000000009</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="D15">
         <f t="shared" si="5"/>
-        <v>112660.92250000006</v>
+        <v>4.2024999999999997</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.54704733747989776</v>
+        <v>0.87224691094558815</v>
       </c>
       <c r="G15" t="b">
         <f t="shared" si="2"/>
@@ -14041,41 +14050,41 @@
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>1471</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>402.15789473684208</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
-        <v>161730.97229916896</v>
+        <v>4.2024999999999997</v>
       </c>
       <c r="K15">
         <f t="shared" si="7"/>
-        <v>65041387.333576314</v>
+        <v>-8.615124999999999</v>
       </c>
       <c r="L15">
         <f t="shared" si="8"/>
-        <v>26156907400.83456</v>
+        <v>17.661006249999996</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B15, IF($C$3=2,Додаток!$C15,IF($C$3=3,Додаток!$D15,IF($C$3=4,Додаток!$E15,IF($C$3=5,Додаток!$F15,IF($C$3=6,Додаток!$H15,IF($C$3=7,Додаток!$I15,IF($C$3=8,Додаток!$J15,IF($C$3=9,Додаток!$K15,IF($C$3=10,Додаток!$L15))))))))))</f>
-        <v>770</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-365.34999999999991</v>
+        <v>-4.9999999999999822E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="5"/>
-        <v>133480.62249999994</v>
+        <v>2.4999999999999823E-3</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.59545283702750051</v>
+        <v>2.1274314901111833E-2</v>
       </c>
       <c r="G16" t="b">
         <f t="shared" si="2"/>
@@ -14083,45 +14092,45 @@
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>770</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>-298.84210526315792</v>
+        <v>-4.9999999999999822E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>89306.603878116352</v>
+        <v>2.4999999999999823E-3</v>
       </c>
       <c r="K16">
         <f t="shared" si="7"/>
-        <v>-26688573.516839195</v>
+        <v>-1.2499999999999867E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="8"/>
-        <v>7975669496.2427864</v>
+        <v>6.2499999999999114E-6</v>
       </c>
       <c r="O16">
         <f>SUMIFS($B$6:$B$25,$G$6:$G25,TRUE)/$O$14</f>
-        <v>1068.8421052631579</v>
+        <v>6.05</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B16, IF($C$3=2,Додаток!$C16,IF($C$3=3,Додаток!$D16,IF($C$3=4,Додаток!$E16,IF($C$3=5,Додаток!$F16,IF($C$3=6,Додаток!$H16,IF($C$3=7,Додаток!$I16,IF($C$3=8,Додаток!$J16,IF($C$3=9,Додаток!$K16,IF($C$3=10,Додаток!$L16))))))))))</f>
-        <v>2199</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>1063.6500000000001</v>
+        <v>-3.05</v>
       </c>
       <c r="D17">
         <f t="shared" si="5"/>
-        <v>1131351.3225000002</v>
+        <v>9.3024999999999984</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1.733552511576026</v>
+        <v>1.2977332089678262</v>
       </c>
       <c r="G17" t="b">
         <f t="shared" si="2"/>
@@ -14129,94 +14138,94 @@
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>2199</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>1130.1578947368421</v>
+        <v>-3.05</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>1277256.8670360111</v>
+        <v>9.3024999999999984</v>
       </c>
       <c r="K17">
         <f t="shared" si="7"/>
-        <v>1443501931.8875928</v>
+        <v>-28.372624999999992</v>
       </c>
       <c r="L17">
         <f t="shared" si="8"/>
-        <v>1631385104390.6465</v>
+        <v>86.536506249999974</v>
       </c>
       <c r="O17">
         <f>SUM($J$6:$J$25)/($O$14-1)</f>
-        <v>303997.918128655</v>
+        <v>5.5236842105263166</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B17, IF($C$3=2,Додаток!$C17,IF($C$3=3,Додаток!$D17,IF($C$3=4,Додаток!$E17,IF($C$3=5,Додаток!$F17,IF($C$3=6,Додаток!$H17,IF($C$3=7,Додаток!$I17,IF($C$3=8,Додаток!$J17,IF($C$3=9,Додаток!$K17,IF($C$3=10,Додаток!$L17))))))))))</f>
-        <v>2399</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>1263.6500000000001</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>1596811.3225000002</v>
+        <v>4.2024999999999997</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>2.0595154714925448</v>
+        <v>0.87224691094558815</v>
       </c>
       <c r="G18" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" t="e">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="J18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.2024999999999997</v>
       </c>
       <c r="K18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-8.615124999999999</v>
       </c>
       <c r="L18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>17.661006249999996</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O18">
         <f>SQRT($O$17)</f>
-        <v>551.36006214510587</v>
+        <v>2.3502519461807316</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B18, IF($C$3=2,Додаток!$C18,IF($C$3=3,Додаток!$D18,IF($C$3=4,Додаток!$E18,IF($C$3=5,Додаток!$F18,IF($C$3=6,Додаток!$H18,IF($C$3=7,Додаток!$I18,IF($C$3=8,Додаток!$J18,IF($C$3=9,Додаток!$K18,IF($C$3=10,Додаток!$L18))))))))))</f>
-        <v>2002</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>866.65000000000009</v>
+        <v>2.95</v>
       </c>
       <c r="D19">
         <f t="shared" si="5"/>
-        <v>751082.22250000015</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>1.4124789960582551</v>
+        <v>1.2551845791656027</v>
       </c>
       <c r="G19" t="b">
         <f t="shared" si="2"/>
@@ -14224,41 +14233,41 @@
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>2002</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>933.15789473684208</v>
+        <v>2.95</v>
       </c>
       <c r="J19">
         <f t="shared" si="6"/>
-        <v>870783.65650969523</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="K19">
         <f t="shared" si="7"/>
-        <v>812578643.67983663</v>
+        <v>25.672375000000002</v>
       </c>
       <c r="L19">
         <f t="shared" si="8"/>
-        <v>758264176444.3949</v>
+        <v>75.733506250000005</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B19, IF($C$3=2,Додаток!$C19,IF($C$3=3,Додаток!$D19,IF($C$3=4,Додаток!$E19,IF($C$3=5,Додаток!$F19,IF($C$3=6,Додаток!$H19,IF($C$3=7,Додаток!$I19,IF($C$3=8,Додаток!$J19,IF($C$3=9,Додаток!$K19,IF($C$3=10,Додаток!$L19))))))))))</f>
-        <v>1043</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>-92.349999999999909</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>8528.5224999999828</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0.15051339674145239</v>
+        <v>0.40421198312112633</v>
       </c>
       <c r="G20" t="b">
         <f t="shared" si="2"/>
@@ -14266,41 +14275,41 @@
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1043</v>
+        <v>7</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>-25.842105263157919</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="J20">
         <f t="shared" si="6"/>
-        <v>667.81440443213421</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="K20">
         <f t="shared" si="7"/>
-        <v>-17257.730135588325</v>
+        <v>0.85737500000000044</v>
       </c>
       <c r="L20">
         <f t="shared" si="8"/>
-        <v>445976.0787670461</v>
+        <v>0.81450625000000054</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B20, IF($C$3=2,Додаток!$C20,IF($C$3=3,Додаток!$D20,IF($C$3=4,Додаток!$E20,IF($C$3=5,Додаток!$F20,IF($C$3=6,Додаток!$H20,IF($C$3=7,Додаток!$I20,IF($C$3=8,Додаток!$J20,IF($C$3=9,Додаток!$K20,IF($C$3=10,Додаток!$L20))))))))))</f>
-        <v>830</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>-305.34999999999991</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="D21">
         <f t="shared" si="5"/>
-        <v>93238.622499999939</v>
+        <v>3.8025000000000007</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.49766394905254485</v>
+        <v>0.82969828114336452</v>
       </c>
       <c r="G21" t="b">
         <f t="shared" si="2"/>
@@ -14308,45 +14317,45 @@
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>830</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>-238.84210526315792</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="J21">
         <f t="shared" si="6"/>
-        <v>57045.551246537405</v>
+        <v>3.8025000000000007</v>
       </c>
       <c r="K21">
         <f t="shared" si="7"/>
-        <v>-13624879.555620356</v>
+        <v>7.4148750000000021</v>
       </c>
       <c r="L21">
         <f t="shared" si="8"/>
-        <v>3254194917.0213251</v>
+        <v>14.459006250000005</v>
       </c>
       <c r="O21">
         <f>SUM($K$6:$K$25)/($O$14*POWER($O$18,3))</f>
-        <v>0.41458131666109049</v>
+        <v>-0.21855177686715854</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B21, IF($C$3=2,Додаток!$C21,IF($C$3=3,Додаток!$D21,IF($C$3=4,Додаток!$E21,IF($C$3=5,Додаток!$F21,IF($C$3=6,Додаток!$H21,IF($C$3=7,Додаток!$I21,IF($C$3=8,Додаток!$J21,IF($C$3=9,Додаток!$K21,IF($C$3=10,Додаток!$L21))))))))))</f>
-        <v>471</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>-664.34999999999991</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>441360.92249999987</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>1.0827674621026961</v>
+        <v>0.40421198312112633</v>
       </c>
       <c r="G22" t="b">
         <f t="shared" si="2"/>
@@ -14354,46 +14363,46 @@
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>471</v>
+        <v>7</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>-597.84210526315792</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="J22">
         <f t="shared" si="6"/>
-        <v>357415.18282548478</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="K22">
         <f t="shared" si="7"/>
-        <v>-213677845.35340431</v>
+        <v>0.85737500000000044</v>
       </c>
       <c r="L22">
         <f t="shared" si="8"/>
-        <v>127745612914.17471</v>
-      </c>
-      <c r="N22" s="24" t="str">
+        <v>0.81450625000000054</v>
+      </c>
+      <c r="N22" s="25" t="str">
         <f>IF($O$21&gt;0,"Позитивний перекіс",IF($O$21&lt;0, "Негативний перекіс", "Нормальний розподіл"))</f>
-        <v>Позитивний перекіс</v>
-      </c>
-      <c r="O22" s="24"/>
+        <v>Негативний перекіс</v>
+      </c>
+      <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B22, IF($C$3=2,Додаток!$C22,IF($C$3=3,Додаток!$D22,IF($C$3=4,Додаток!$E22,IF($C$3=5,Додаток!$F22,IF($C$3=6,Додаток!$H22,IF($C$3=7,Додаток!$I22,IF($C$3=8,Додаток!$J22,IF($C$3=9,Додаток!$K22,IF($C$3=10,Додаток!$L22))))))))))</f>
-        <v>662</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>-473.34999999999991</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="D23">
         <f t="shared" si="5"/>
-        <v>224060.22249999992</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0.77147283538242062</v>
+        <v>0.40421198312112633</v>
       </c>
       <c r="G23" t="b">
         <f t="shared" si="2"/>
@@ -14401,41 +14410,41 @@
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>662</v>
+        <v>7</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>-406.84210526315792</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="J23">
         <f t="shared" si="6"/>
-        <v>165520.49861495846</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="K23">
         <f t="shared" si="7"/>
-        <v>-67340708.120717317</v>
+        <v>0.85737500000000044</v>
       </c>
       <c r="L23">
         <f t="shared" si="8"/>
-        <v>27397035461.744465</v>
+        <v>0.81450625000000054</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B23, IF($C$3=2,Додаток!$C23,IF($C$3=3,Додаток!$D23,IF($C$3=4,Додаток!$E23,IF($C$3=5,Додаток!$F23,IF($C$3=6,Додаток!$H23,IF($C$3=7,Додаток!$I23,IF($C$3=8,Додаток!$J23,IF($C$3=9,Додаток!$K23,IF($C$3=10,Додаток!$L23))))))))))</f>
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-978.34999999999991</v>
+        <v>2.95</v>
       </c>
       <c r="D24">
         <f t="shared" si="5"/>
-        <v>957168.7224999998</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>1.5945293091716306</v>
+        <v>1.2551845791656027</v>
       </c>
       <c r="G24" t="b">
         <f t="shared" si="2"/>
@@ -14443,45 +14452,45 @@
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>-911.84210526315792</v>
+        <v>2.95</v>
       </c>
       <c r="J24">
         <f t="shared" si="6"/>
-        <v>831456.02493074792</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="K24">
         <f t="shared" si="7"/>
-        <v>-758156612.20658994</v>
+        <v>25.672375000000002</v>
       </c>
       <c r="L24">
         <f t="shared" si="8"/>
-        <v>691319121393.6405</v>
+        <v>75.733506250000005</v>
       </c>
       <c r="O24">
         <f>SUM($L$6:$L$25)/($O$14*POWER($O$18,4)) - 3</f>
-        <v>-0.76829813097773769</v>
+        <v>-1.4943594155750568</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B24, IF($C$3=2,Додаток!$C24,IF($C$3=3,Додаток!$D24,IF($C$3=4,Додаток!$E24,IF($C$3=5,Додаток!$F24,IF($C$3=6,Додаток!$H24,IF($C$3=7,Додаток!$I24,IF($C$3=8,Додаток!$J24,IF($C$3=9,Додаток!$K24,IF($C$3=10,Додаток!$L24))))))))))</f>
-        <v>568</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>-567.34999999999991</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="D25">
         <f t="shared" si="5"/>
-        <v>321886.0224999999</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>0.92467542654318446</v>
+        <v>0.40421198312112633</v>
       </c>
       <c r="G25" t="b">
         <f t="shared" si="2"/>
@@ -14489,46 +14498,46 @@
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>568</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>-500.84210526315792</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="J25">
         <f t="shared" si="6"/>
-        <v>250842.81440443217</v>
+        <v>0.9025000000000003</v>
       </c>
       <c r="K25">
         <f t="shared" si="7"/>
-        <v>-125632643.2564514</v>
+        <v>0.85737500000000044</v>
       </c>
       <c r="L25">
         <f t="shared" si="8"/>
-        <v>62922117538.336403</v>
-      </c>
-      <c r="N25" s="24" t="str">
+        <v>0.81450625000000054</v>
+      </c>
+      <c r="N25" s="25" t="str">
         <f>IF($O$21&gt;0,"Гостріший пік",IF($O$21&lt;0, "Плоскіший пік", "Нормальний розподіл"))</f>
-        <v>Гостріший пік</v>
-      </c>
-      <c r="O25" s="24"/>
+        <v>Плоскіший пік</v>
+      </c>
+      <c r="O25" s="25"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="N29" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="23"/>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="24"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O30">
         <f>MIN($B$6:$B$25)</f>
-        <v>157</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="O31">
         <f>MAX($B$6:$B$25)</f>
-        <v>2399</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -14553,66 +14562,66 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" customWidth="1"/>
-    <col min="15" max="16" width="7.6640625" customWidth="1"/>
-    <col min="17" max="17" width="3.88671875" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" customWidth="1"/>
-    <col min="22" max="22" width="6.88671875" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="16" width="7.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5">
         <v>7</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="26"/>
+      <c r="H3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="E4" s="8"/>
       <c r="H4" s="10"/>
@@ -14620,36 +14629,36 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="S4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B5, IF($C$3=2,Додаток!$C5,IF($C$3=3,Додаток!$D5,IF($C$3=4,Додаток!$E5,IF($C$3=5,Додаток!$F5,IF($C$3=6,Додаток!$H5,IF($C$3=7,Додаток!$I5,IF($C$3=8,Додаток!$J5,IF($C$3=9,Додаток!$K5,IF($C$3=10,Додаток!$L5))))))))))</f>
-        <v>1305</v>
+        <v>199</v>
       </c>
       <c r="E5">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B5, IF($F$3=2,Додаток!$C5,IF($F$3=3,Додаток!$D5,IF($F$3=4,Додаток!$E5,IF($F$3=5,Додаток!$F5,IF($F$3=6,Додаток!$H5,IF($F$3=7,Додаток!$I5,IF($F$3=8,Додаток!$J5,IF($F$3=9,Додаток!$K5,IF($F$3=10,Додаток!$L5))))))))))</f>
-        <v>0.125</v>
+        <v>2.16</v>
       </c>
       <c r="H5">
         <f>_xlfn.RANK.AVG(B5,$B$5:$B$24)</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <f>_xlfn.RANK.AVG(E5,$E$5:$E$24)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -14677,22 +14686,22 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B6, IF($C$3=2,Додаток!$C6,IF($C$3=3,Додаток!$D6,IF($C$3=4,Додаток!$E6,IF($C$3=5,Додаток!$F6,IF($C$3=6,Додаток!$H6,IF($C$3=7,Додаток!$I6,IF($C$3=8,Додаток!$J6,IF($C$3=9,Додаток!$K6,IF($C$3=10,Додаток!$L6))))))))))</f>
-        <v>1243</v>
+        <v>43921</v>
       </c>
       <c r="E6">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B6, IF($F$3=2,Додаток!C6,IF($F$3=3,Додаток!D6,IF($F$3=4,Додаток!E6,IF($F$3=5,Додаток!F6,IF($F$3=6,Додаток!H6,IF($F$3=7,Додаток!I6,IF($F$3=8,Додаток!J6,IF($F$3=9,Додаток!K6,IF($F$3=10,Додаток!L6))))))))))</f>
-        <v>9.5000000000000001E-2</v>
+        <v>3.24</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H24" si="0">_xlfn.RANK.AVG(B6,$B$5:$B$24)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I24" si="1">_xlfn.RANK.AVG(E6,$E$5:$E$24)</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -14717,22 +14726,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B7, IF($C$3=2,Додаток!$C7,IF($C$3=3,Додаток!$D7,IF($C$3=4,Додаток!$E7,IF($C$3=5,Додаток!$F7,IF($C$3=6,Додаток!$H7,IF($C$3=7,Додаток!$I7,IF($C$3=8,Додаток!$J7,IF($C$3=9,Додаток!$K7,IF($C$3=10,Додаток!$L7))))))))))</f>
-        <v>1846</v>
+        <v>20098</v>
       </c>
       <c r="E7">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B7, IF($F$3=2,Додаток!C7,IF($F$3=3,Додаток!D7,IF($F$3=4,Додаток!E7,IF($F$3=5,Додаток!F7,IF($F$3=6,Додаток!H7,IF($F$3=7,Додаток!I7,IF($F$3=8,Додаток!J7,IF($F$3=9,Додаток!K7,IF($F$3=10,Додаток!L7))))))))))</f>
-        <v>0.254</v>
+        <v>3.4</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -14761,22 +14770,22 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B8, IF($C$3=2,Додаток!$C8,IF($C$3=3,Додаток!$D8,IF($C$3=4,Додаток!$E8,IF($C$3=5,Додаток!$F8,IF($C$3=6,Додаток!$H8,IF($C$3=7,Додаток!$I8,IF($C$3=8,Додаток!$J8,IF($C$3=9,Додаток!$K8,IF($C$3=10,Додаток!$L8))))))))))</f>
-        <v>930</v>
+        <v>21220</v>
       </c>
       <c r="E8">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B8, IF($F$3=2,Додаток!C8,IF($F$3=3,Додаток!D8,IF($F$3=4,Додаток!E8,IF($F$3=5,Додаток!F8,IF($F$3=6,Додаток!H8,IF($F$3=7,Додаток!I8,IF($F$3=8,Додаток!J8,IF($F$3=9,Додаток!K8,IF($F$3=10,Додаток!L8))))))))))</f>
-        <v>0.28299999999999997</v>
+        <v>2.13</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -14805,22 +14814,22 @@
         <v>0.30769339013829466</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B9, IF($C$3=2,Додаток!$C9,IF($C$3=3,Додаток!$D9,IF($C$3=4,Додаток!$E9,IF($C$3=5,Додаток!$F9,IF($C$3=6,Додаток!$H9,IF($C$3=7,Додаток!$I9,IF($C$3=8,Додаток!$J9,IF($C$3=9,Додаток!$K9,IF($C$3=10,Додаток!$L9))))))))))</f>
-        <v>1272</v>
+        <v>611</v>
       </c>
       <c r="E9">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B9, IF($F$3=2,Додаток!C9,IF($F$3=3,Додаток!D9,IF($F$3=4,Додаток!E9,IF($F$3=5,Додаток!F9,IF($F$3=6,Додаток!H9,IF($F$3=7,Додаток!I9,IF($F$3=8,Додаток!J9,IF($F$3=9,Додаток!K9,IF($F$3=10,Додаток!L9))))))))))</f>
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -14845,21 +14854,21 @@
         <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T9" s="16" t="str">
         <f>IF(ABS($T$8)&gt;$T$5,"Так","Ні")</f>
         <v>Так</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B10, IF($C$3=2,Додаток!$C10,IF($C$3=3,Додаток!$D10,IF($C$3=4,Додаток!$E10,IF($C$3=5,Додаток!$F10,IF($C$3=6,Додаток!$H10,IF($C$3=7,Додаток!$I10,IF($C$3=8,Додаток!$J10,IF($C$3=9,Додаток!$K10,IF($C$3=10,Додаток!$L10))))))))))</f>
-        <v>1006</v>
+        <v>5541</v>
       </c>
       <c r="E10">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B10, IF($F$3=2,Додаток!C10,IF($F$3=3,Додаток!D10,IF($F$3=4,Додаток!E10,IF($F$3=5,Додаток!F10,IF($F$3=6,Додаток!H10,IF($F$3=7,Додаток!I10,IF($F$3=8,Додаток!J10,IF($F$3=9,Додаток!K10,IF($F$3=10,Додаток!L10))))))))))</f>
-        <v>5.2999999999999999E-2</v>
+        <v>1.49</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -14867,7 +14876,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -14892,22 +14901,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B11, IF($C$3=2,Додаток!$C11,IF($C$3=3,Додаток!$D11,IF($C$3=4,Додаток!$E11,IF($C$3=5,Додаток!$F11,IF($C$3=6,Додаток!$H11,IF($C$3=7,Додаток!$I11,IF($C$3=8,Додаток!$J11,IF($C$3=9,Додаток!$K11,IF($C$3=10,Додаток!$L11))))))))))</f>
-        <v>1395</v>
+        <v>5043</v>
       </c>
       <c r="E11">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B11, IF($F$3=2,Додаток!C11,IF($F$3=3,Додаток!D11,IF($F$3=4,Додаток!E11,IF($F$3=5,Додаток!F11,IF($F$3=6,Додаток!H11,IF($F$3=7,Додаток!I11,IF($F$3=8,Додаток!J11,IF($F$3=9,Додаток!K11,IF($F$3=10,Додаток!L11))))))))))</f>
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>19.5</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>7</v>
@@ -14932,22 +14941,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B12, IF($C$3=2,Додаток!$C12,IF($C$3=3,Додаток!$D12,IF($C$3=4,Додаток!$E12,IF($C$3=5,Додаток!$F12,IF($C$3=6,Додаток!$H12,IF($C$3=7,Додаток!$I12,IF($C$3=8,Додаток!$J12,IF($C$3=9,Додаток!$K12,IF($C$3=10,Додаток!$L12))))))))))</f>
-        <v>726</v>
+        <v>7064</v>
       </c>
       <c r="E12">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B12, IF($F$3=2,Додаток!C12,IF($F$3=3,Додаток!D12,IF($F$3=4,Додаток!E12,IF($F$3=5,Додаток!F12,IF($F$3=6,Додаток!H12,IF($F$3=7,Додаток!I12,IF($F$3=8,Додаток!J12,IF($F$3=9,Додаток!K12,IF($F$3=10,Додаток!L12))))))))))</f>
-        <v>0.48199999999999998</v>
+        <v>2.63</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>8</v>
@@ -14972,22 +14981,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B13, IF($C$3=2,Додаток!$C13,IF($C$3=3,Додаток!$D13,IF($C$3=4,Додаток!$E13,IF($C$3=5,Додаток!$F13,IF($C$3=6,Додаток!$H13,IF($C$3=7,Додаток!$I13,IF($C$3=8,Додаток!$J13,IF($C$3=9,Додаток!$K13,IF($C$3=10,Додаток!$L13))))))))))</f>
-        <v>412</v>
+        <v>1408</v>
       </c>
       <c r="E13">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B13, IF($F$3=2,Додаток!C13,IF($F$3=3,Додаток!D13,IF($F$3=4,Додаток!E13,IF($F$3=5,Додаток!F13,IF($F$3=6,Додаток!H13,IF($F$3=7,Додаток!I13,IF($F$3=8,Додаток!J13,IF($F$3=9,Додаток!K13,IF($F$3=10,Додаток!L13))))))))))</f>
-        <v>0.52900000000000003</v>
+        <v>1.6</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J13">
         <v>9</v>
@@ -15012,22 +15021,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B14, IF($C$3=2,Додаток!$C14,IF($C$3=3,Додаток!$D14,IF($C$3=4,Додаток!$E14,IF($C$3=5,Додаток!$F14,IF($C$3=6,Додаток!$H14,IF($C$3=7,Додаток!$I14,IF($C$3=8,Додаток!$J14,IF($C$3=9,Додаток!$K14,IF($C$3=10,Додаток!$L14))))))))))</f>
-        <v>1471</v>
+        <v>67923</v>
       </c>
       <c r="E14">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B14, IF($F$3=2,Додаток!C14,IF($F$3=3,Додаток!D14,IF($F$3=4,Додаток!E14,IF($F$3=5,Додаток!F14,IF($F$3=6,Додаток!H14,IF($F$3=7,Додаток!I14,IF($F$3=8,Додаток!J14,IF($F$3=9,Додаток!K14,IF($F$3=10,Додаток!L14))))))))))</f>
-        <v>0.38600000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -15052,22 +15061,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B15, IF($C$3=2,Додаток!$C15,IF($C$3=3,Додаток!$D15,IF($C$3=4,Додаток!$E15,IF($C$3=5,Додаток!$F15,IF($C$3=6,Додаток!$H15,IF($C$3=7,Додаток!$I15,IF($C$3=8,Додаток!$J15,IF($C$3=9,Додаток!$K15,IF($C$3=10,Додаток!$L15))))))))))</f>
-        <v>770</v>
+        <v>62274</v>
       </c>
       <c r="E15">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B15, IF($F$3=2,Додаток!C15,IF($F$3=3,Додаток!D15,IF($F$3=4,Додаток!E15,IF($F$3=5,Додаток!F15,IF($F$3=6,Додаток!H15,IF($F$3=7,Додаток!I15,IF($F$3=8,Додаток!J15,IF($F$3=9,Додаток!K15,IF($F$3=10,Додаток!L15))))))))))</f>
-        <v>0.45</v>
+        <v>1.93</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J15">
         <v>11</v>
@@ -15092,22 +15101,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B16, IF($C$3=2,Додаток!$C16,IF($C$3=3,Додаток!$D16,IF($C$3=4,Додаток!$E16,IF($C$3=5,Додаток!$F16,IF($C$3=6,Додаток!$H16,IF($C$3=7,Додаток!$I16,IF($C$3=8,Додаток!$J16,IF($C$3=9,Додаток!$K16,IF($C$3=10,Додаток!$L16))))))))))</f>
-        <v>2199</v>
+        <v>2475</v>
       </c>
       <c r="E16">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B16, IF($F$3=2,Додаток!C16,IF($F$3=3,Додаток!D16,IF($F$3=4,Додаток!E16,IF($F$3=5,Додаток!F16,IF($F$3=6,Додаток!H16,IF($F$3=7,Додаток!I16,IF($F$3=8,Додаток!J16,IF($F$3=9,Додаток!K16,IF($F$3=10,Додаток!L16))))))))))</f>
-        <v>0.58599999999999997</v>
+        <v>1.5</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J16">
         <v>12</v>
@@ -15132,22 +15141,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B17, IF($C$3=2,Додаток!$C17,IF($C$3=3,Додаток!$D17,IF($C$3=4,Додаток!$E17,IF($C$3=5,Додаток!$F17,IF($C$3=6,Додаток!$H17,IF($C$3=7,Додаток!$I17,IF($C$3=8,Додаток!$J17,IF($C$3=9,Додаток!$K17,IF($C$3=10,Додаток!$L17))))))))))</f>
-        <v>2399</v>
+        <v>983</v>
       </c>
       <c r="E17">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B17, IF($F$3=2,Додаток!C17,IF($F$3=3,Додаток!D17,IF($F$3=4,Додаток!E17,IF($F$3=5,Додаток!F17,IF($F$3=6,Додаток!H17,IF($F$3=7,Додаток!I17,IF($F$3=8,Додаток!J17,IF($F$3=9,Додаток!K17,IF($F$3=10,Додаток!L17))))))))))</f>
-        <v>0.39400000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <v>13.5</v>
@@ -15172,22 +15181,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B18, IF($C$3=2,Додаток!$C18,IF($C$3=3,Додаток!$D18,IF($C$3=4,Додаток!$E18,IF($C$3=5,Додаток!$F18,IF($C$3=6,Додаток!$H18,IF($C$3=7,Додаток!$I18,IF($C$3=8,Додаток!$J18,IF($C$3=9,Додаток!$K18,IF($C$3=10,Додаток!$L18))))))))))</f>
-        <v>2002</v>
+        <v>3160</v>
       </c>
       <c r="E18">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B18, IF($F$3=2,Додаток!C18,IF($F$3=3,Додаток!D18,IF($F$3=4,Додаток!E18,IF($F$3=5,Додаток!F18,IF($F$3=6,Додаток!H18,IF($F$3=7,Додаток!I18,IF($F$3=8,Додаток!J18,IF($F$3=9,Додаток!K18,IF($F$3=10,Додаток!L18))))))))))</f>
-        <v>0.56999999999999995</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <v>13.5</v>
@@ -15212,22 +15221,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B19, IF($C$3=2,Додаток!$C19,IF($C$3=3,Додаток!$D19,IF($C$3=4,Додаток!$E19,IF($C$3=5,Додаток!$F19,IF($C$3=6,Додаток!$H19,IF($C$3=7,Додаток!$I19,IF($C$3=8,Додаток!$J19,IF($C$3=9,Додаток!$K19,IF($C$3=10,Додаток!$L19))))))))))</f>
-        <v>1043</v>
+        <v>34563</v>
       </c>
       <c r="E19">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B19, IF($F$3=2,Додаток!C19,IF($F$3=3,Додаток!D19,IF($F$3=4,Додаток!E19,IF($F$3=5,Додаток!F19,IF($F$3=6,Додаток!H19,IF($F$3=7,Додаток!I19,IF($F$3=8,Додаток!J19,IF($F$3=9,Додаток!K19,IF($F$3=10,Додаток!L19))))))))))</f>
-        <v>0.54</v>
+        <v>2.21</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J19">
         <v>15</v>
@@ -15252,22 +15261,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B20, IF($C$3=2,Додаток!$C20,IF($C$3=3,Додаток!$D20,IF($C$3=4,Додаток!$E20,IF($C$3=5,Додаток!$F20,IF($C$3=6,Додаток!$H20,IF($C$3=7,Додаток!$I20,IF($C$3=8,Додаток!$J20,IF($C$3=9,Додаток!$K20,IF($C$3=10,Додаток!$L20))))))))))</f>
-        <v>830</v>
+        <v>67345</v>
       </c>
       <c r="E20">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B20, IF($F$3=2,Додаток!C20,IF($F$3=3,Додаток!D20,IF($F$3=4,Додаток!E20,IF($F$3=5,Додаток!F20,IF($F$3=6,Додаток!H20,IF($F$3=7,Додаток!I20,IF($F$3=8,Додаток!J20,IF($F$3=9,Додаток!K20,IF($F$3=10,Додаток!L20))))))))))</f>
-        <v>0.39</v>
+        <v>1.7</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J20">
         <v>16</v>
@@ -15292,22 +15301,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B21, IF($C$3=2,Додаток!$C21,IF($C$3=3,Додаток!$D21,IF($C$3=4,Додаток!$E21,IF($C$3=5,Додаток!$F21,IF($C$3=6,Додаток!$H21,IF($C$3=7,Додаток!$I21,IF($C$3=8,Додаток!$J21,IF($C$3=9,Додаток!$K21,IF($C$3=10,Додаток!$L21))))))))))</f>
-        <v>471</v>
+        <v>23453</v>
       </c>
       <c r="E21">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B21, IF($F$3=2,Додаток!C21,IF($F$3=3,Додаток!D21,IF($F$3=4,Додаток!E21,IF($F$3=5,Додаток!F21,IF($F$3=6,Додаток!H21,IF($F$3=7,Додаток!I21,IF($F$3=8,Додаток!J21,IF($F$3=9,Додаток!K21,IF($F$3=10,Додаток!L21))))))))))</f>
-        <v>0.35</v>
+        <v>3.1</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>17</v>
@@ -15332,22 +15341,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B22, IF($C$3=2,Додаток!$C22,IF($C$3=3,Додаток!$D22,IF($C$3=4,Додаток!$E22,IF($C$3=5,Додаток!$F22,IF($C$3=6,Додаток!$H22,IF($C$3=7,Додаток!$I22,IF($C$3=8,Додаток!$J22,IF($C$3=9,Додаток!$K22,IF($C$3=10,Додаток!$L22))))))))))</f>
-        <v>662</v>
+        <v>341</v>
       </c>
       <c r="E22">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B22, IF($F$3=2,Додаток!C22,IF($F$3=3,Додаток!D22,IF($F$3=4,Додаток!E22,IF($F$3=5,Додаток!F22,IF($F$3=6,Додаток!H22,IF($F$3=7,Додаток!I22,IF($F$3=8,Додаток!J22,IF($F$3=9,Додаток!K22,IF($F$3=10,Додаток!L22))))))))))</f>
-        <v>0.54300000000000004</v>
+        <v>2.14</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <v>18</v>
@@ -15372,22 +15381,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B23, IF($C$3=2,Додаток!$C23,IF($C$3=3,Додаток!$D23,IF($C$3=4,Додаток!$E23,IF($C$3=5,Додаток!$F23,IF($C$3=6,Додаток!$H23,IF($C$3=7,Додаток!$I23,IF($C$3=8,Додаток!$J23,IF($C$3=9,Додаток!$K23,IF($C$3=10,Додаток!$L23))))))))))</f>
-        <v>157</v>
+        <v>67700</v>
       </c>
       <c r="E23">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B23, IF($F$3=2,Додаток!C23,IF($F$3=3,Додаток!D23,IF($F$3=4,Додаток!E23,IF($F$3=5,Додаток!F23,IF($F$3=6,Додаток!H23,IF($F$3=7,Додаток!I23,IF($F$3=8,Додаток!J23,IF($F$3=9,Додаток!K23,IF($F$3=10,Додаток!L23))))))))))</f>
-        <v>0.53800000000000003</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J23">
         <v>19.5</v>
@@ -15412,22 +15421,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B24, IF($C$3=2,Додаток!$C24,IF($C$3=3,Додаток!$D24,IF($C$3=4,Додаток!$E24,IF($C$3=5,Додаток!$F24,IF($C$3=6,Додаток!$H24,IF($C$3=7,Додаток!$I24,IF($C$3=8,Додаток!$J24,IF($C$3=9,Додаток!$K24,IF($C$3=10,Додаток!$L24))))))))))</f>
-        <v>568</v>
+        <v>234</v>
       </c>
       <c r="E24">
         <f xml:space="preserve"> IF($F$3=1, Додаток!B24, IF($F$3=2,Додаток!C24,IF($F$3=3,Додаток!D24,IF($F$3=4,Додаток!E24,IF($F$3=5,Додаток!F24,IF($F$3=6,Додаток!H24,IF($F$3=7,Додаток!I24,IF($F$3=8,Додаток!J24,IF($F$3=9,Додаток!K24,IF($F$3=10,Додаток!L24))))))))))</f>
-        <v>0.48099999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J24">
         <v>19.5</v>
@@ -15452,9 +15461,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="11:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L36">
         <f>SUM($L$5:$L$24)</f>
@@ -15497,50 +15506,50 @@
       <selection activeCell="B5" sqref="B5:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" customWidth="1"/>
-    <col min="15" max="17" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="17" width="7.5703125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.109375" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" customWidth="1"/>
-    <col min="23" max="23" width="12.77734375" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
@@ -15549,24 +15558,24 @@
       <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="str">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B4, IF($C$3=2,Додаток!$C4,IF($C$3=3,Додаток!$D4,IF($C$3=4,Додаток!$E4,IF($C$3=5,Додаток!$F4,IF($C$3=6,Додаток!$H4,IF($C$3=7,Додаток!$I4,IF($C$3=8,Додаток!$J4,IF($C$3=9,Додаток!$K4,IF($C$3=10,Додаток!$L4))))))))))</f>
-        <v>FOUT</v>
+        <v>NOP</v>
       </c>
       <c r="E4" s="8" t="str">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B4, IF($F$3=2,Додаток!$C4,IF($F$3=3,Додаток!$D4,IF($F$3=4,Додаток!$E4,IF($F$3=5,Додаток!$F4,IF($F$3=6,Додаток!$H4,IF($F$3=7,Додаток!$I4,IF($F$3=8,Додаток!$J4,IF($F$3=9,Додаток!$K4,IF($F$3=10,Додаток!$L4))))))))))</f>
@@ -15581,1363 +15590,1363 @@
       <c r="P4" s="12"/>
       <c r="S4">
         <f>AVERAGE(B5:B24)</f>
-        <v>85.75</v>
+        <v>6.1815000000000007</v>
       </c>
       <c r="U4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="13" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B5, IF($C$3=2,Додаток!$C5,IF($C$3=3,Додаток!$D5,IF($C$3=4,Додаток!$E5,IF($C$3=5,Додаток!$F5,IF($C$3=6,Додаток!$H5,IF($C$3=7,Додаток!$I5,IF($C$3=8,Додаток!$J5,IF($C$3=9,Додаток!$K5,IF($C$3=10,Додаток!$L5))))))))))</f>
-        <v>54</v>
+        <v>1.62</v>
       </c>
       <c r="E5">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B5, IF($F$3=2,Додаток!$C5,IF($F$3=3,Додаток!$D5,IF($F$3=4,Додаток!$E5,IF($F$3=5,Додаток!$F5,IF($F$3=6,Додаток!$H5,IF($F$3=7,Додаток!$I5,IF($F$3=8,Додаток!$J5,IF($F$3=9,Додаток!$K5,IF($F$3=10,Додаток!$L5))))))))))</f>
-        <v>0.125</v>
+        <v>2.16</v>
       </c>
       <c r="H5">
         <f>LOG10(B5+0.1)</f>
-        <v>1.7331972651065695</v>
+        <v>0.23552844690754896</v>
       </c>
       <c r="I5">
         <f>LOG10(E5 + 0.1)</f>
-        <v>-0.64781748188863753</v>
+        <v>0.35410843914740098</v>
       </c>
       <c r="K5">
         <f>B5*E5</f>
-        <v>6.75</v>
+        <v>3.4992000000000005</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L24" si="0">B5*I5</f>
-        <v>-34.982144021986429</v>
+        <v>0.57365567141878959</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M24" si="1">H5*I5</f>
-        <v>-1.1227954878976112</v>
+        <v>8.3402610709243666E-2</v>
       </c>
       <c r="O5">
         <f>B5*B5</f>
-        <v>2916</v>
+        <v>2.6244000000000005</v>
       </c>
       <c r="P5">
         <f>H5*H5</f>
-        <v>3.0039727597728922</v>
+        <v>5.5473649302682108E-2</v>
       </c>
       <c r="S5">
         <f>AVERAGE(E5:E24)</f>
-        <v>0.35244999999999999</v>
+        <v>2.3080000000000007</v>
       </c>
       <c r="U5" s="6">
         <f t="shared" ref="U5:U24" si="2">$S$18*B5+$S$23</f>
-        <v>0.32220700461089802</v>
+        <v>2.5277646542834558</v>
       </c>
       <c r="V5" s="6">
         <f t="shared" ref="V5:V24" si="3">POWER(E5-U5,2)</f>
-        <v>3.8890602667602754E-2</v>
+        <v>0.13525084094022963</v>
       </c>
       <c r="W5" s="6">
         <f>POWER(10,$S$24)*POWER(10,$S$19*B5)</f>
-        <v>0.35695790664129406</v>
+        <v>2.5149167095697806</v>
       </c>
       <c r="X5" s="6">
         <f t="shared" ref="X5:X24" si="4">POWER(E5-W5,2)</f>
-        <v>5.3804470453411295E-2</v>
+        <v>0.12596587073183993</v>
       </c>
       <c r="Y5" s="6">
         <f>POWER(10,$S$25)*POWER(B5,$S$20)</f>
-        <v>0.38322777309711342</v>
+        <v>2.7856180605393837</v>
       </c>
       <c r="Z5" s="6">
         <f t="shared" ref="Z5:Z24" si="5">POWER(E5-Y5,2)</f>
-        <v>6.6681582798694294E-2</v>
+        <v>0.39139795767305974</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B6, IF($C$3=2,Додаток!$C6,IF($C$3=3,Додаток!$D6,IF($C$3=4,Додаток!$E6,IF($C$3=5,Додаток!$F6,IF($C$3=6,Додаток!$H6,IF($C$3=7,Додаток!$I6,IF($C$3=8,Додаток!$J6,IF($C$3=9,Додаток!$K6,IF($C$3=10,Додаток!$L6))))))))))</f>
-        <v>48</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E6">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B6, IF($F$3=2,Додаток!$C6,IF($F$3=3,Додаток!$D6,IF($F$3=4,Додаток!$E6,IF($F$3=5,Додаток!$F6,IF($F$3=6,Додаток!$H6,IF($F$3=7,Додаток!$I6,IF($F$3=8,Додаток!$J6,IF($F$3=9,Додаток!$K6,IF($F$3=10,Додаток!$L6))))))))))</f>
-        <v>9.5000000000000001E-2</v>
+        <v>3.24</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H24" si="6">LOG10(B6+0.1)</f>
-        <v>1.6821450763738317</v>
+        <v>0.69548167649019743</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I24" si="7">LOG10(E6 + 0.1)</f>
-        <v>-0.70996538863748193</v>
+        <v>0.52374646681156456</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K24" si="8">B6*E6</f>
-        <v>4.5600000000000005</v>
+        <v>15.746400000000001</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>-34.078338654599136</v>
+        <v>2.5454078287042039</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>-1.1942647828923743</v>
+        <v>0.36425607079392447</v>
       </c>
       <c r="O6">
         <f t="shared" ref="O6:O24" si="9">B6*B6</f>
-        <v>2304</v>
+        <v>23.619600000000002</v>
       </c>
       <c r="P6">
         <f t="shared" ref="P6:P24" si="10">H6*H6</f>
-        <v>2.8296120579687241</v>
+        <v>0.48369476233361564</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6">
         <f>AVERAGE(H5:H24)</f>
-        <v>1.7861655097934039</v>
+        <v>0.73177655720303825</v>
       </c>
       <c r="U6" s="6">
         <f>$S$18*B6+$S$23</f>
-        <v>0.31649179288382367</v>
+        <v>2.3716674319052045</v>
       </c>
       <c r="V6" s="6">
         <f t="shared" si="3"/>
-        <v>4.9058614314890642E-2</v>
+        <v>0.75400144881410314</v>
       </c>
       <c r="W6" s="6">
         <f>POWER(10,$S$24)*POWER(10,$S$19*B6)</f>
-        <v>0.35094933247689269</v>
+        <v>2.3740492863452753</v>
       </c>
       <c r="X6" s="6">
         <f t="shared" si="4"/>
-        <v>6.5510060795366948E-2</v>
+        <v>0.74987063847912727</v>
       </c>
       <c r="Y6" s="6">
         <f t="shared" ref="Y6:Y24" si="11">POWER(10,$S$25)*POWER(B6,$S$20)</f>
-        <v>0.37642789824845702</v>
+        <v>2.3559324558386834</v>
       </c>
       <c r="Z6" s="6">
         <f t="shared" si="5"/>
-        <v>7.9201661912543894E-2</v>
+        <v>0.78157542263942192</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B7, IF($C$3=2,Додаток!$C7,IF($C$3=3,Додаток!$D7,IF($C$3=4,Додаток!$E7,IF($C$3=5,Додаток!$F7,IF($C$3=6,Додаток!$H7,IF($C$3=7,Додаток!$I7,IF($C$3=8,Додаток!$J7,IF($C$3=9,Додаток!$K7,IF($C$3=10,Додаток!$L7))))))))))</f>
-        <v>59</v>
+        <v>3.84</v>
       </c>
       <c r="E7">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B7, IF($F$3=2,Додаток!$C7,IF($F$3=3,Додаток!$D7,IF($F$3=4,Додаток!$E7,IF($F$3=5,Додаток!$F7,IF($F$3=6,Додаток!$H7,IF($F$3=7,Додаток!$I7,IF($F$3=8,Додаток!$J7,IF($F$3=9,Додаток!$K7,IF($F$3=10,Додаток!$L7))))))))))</f>
-        <v>0.254</v>
+        <v>3.4</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>1.7715874808812553</v>
+        <v>0.59549622182557416</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>-0.45099673797421219</v>
+        <v>0.54406804435027567</v>
       </c>
       <c r="K7">
         <f t="shared" si="8"/>
-        <v>14.986000000000001</v>
+        <v>13.055999999999999</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>-26.608807540478519</v>
+        <v>2.0892212903050584</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>-0.79898017491339812</v>
+        <v>0.32399046482661809</v>
       </c>
       <c r="O7">
         <f t="shared" si="9"/>
-        <v>3481</v>
+        <v>14.7456</v>
       </c>
       <c r="P7">
         <f t="shared" si="10"/>
-        <v>3.1385222024151922</v>
+        <v>0.35461575020853342</v>
       </c>
       <c r="S7">
         <f>AVERAGE(I5:I24)</f>
-        <v>-0.40836972978538649</v>
+        <v>0.36527915476834982</v>
       </c>
       <c r="U7" s="6">
         <f t="shared" si="2"/>
-        <v>0.32696968105012669</v>
+        <v>2.4208091500613205</v>
       </c>
       <c r="V7" s="6">
         <f t="shared" si="3"/>
-        <v>5.3245743525572181E-3</v>
+        <v>0.95881472060363349</v>
       </c>
       <c r="W7" s="6">
         <f t="shared" ref="W7:W24" si="12">POWER(10,$S$24)*POWER(10,$S$19*B7)</f>
-        <v>0.36204356040725216</v>
+        <v>2.4175238414685509</v>
       </c>
       <c r="X7" s="6">
         <f t="shared" si="4"/>
-        <v>1.1673410945475547E-2</v>
+        <v>0.96525940208271288</v>
       </c>
       <c r="Y7" s="6">
         <f t="shared" si="11"/>
-        <v>0.38842092817557794</v>
+        <v>2.4421024006991381</v>
       </c>
       <c r="Z7" s="6">
         <f t="shared" si="5"/>
-        <v>1.8068985931583882E-2</v>
+        <v>0.91756781074635441</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B8, IF($C$3=2,Додаток!$C8,IF($C$3=3,Додаток!$D8,IF($C$3=4,Додаток!$E8,IF($C$3=5,Додаток!$F8,IF($C$3=6,Додаток!$H8,IF($C$3=7,Додаток!$I8,IF($C$3=8,Додаток!$J8,IF($C$3=9,Додаток!$K8,IF($C$3=10,Додаток!$L8))))))))))</f>
-        <v>26</v>
+        <v>6.03</v>
       </c>
       <c r="E8">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B8, IF($F$3=2,Додаток!$C8,IF($F$3=3,Додаток!$D8,IF($F$3=4,Додаток!$E8,IF($F$3=5,Додаток!$F8,IF($F$3=6,Додаток!$H8,IF($F$3=7,Додаток!$I8,IF($F$3=8,Додаток!$J8,IF($F$3=9,Додаток!$K8,IF($F$3=10,Додаток!$L8))))))))))</f>
-        <v>0.28299999999999997</v>
+        <v>2.13</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>1.4166405073382811</v>
+        <v>0.78746047451841505</v>
       </c>
       <c r="I8">
         <f t="shared" si="7"/>
-        <v>-0.41680122603137726</v>
+        <v>0.34830486304816066</v>
       </c>
       <c r="K8">
         <f t="shared" si="8"/>
-        <v>7.3579999999999997</v>
+        <v>12.8439</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>-10.836831876815809</v>
+        <v>2.1002783241804091</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>-0.59045750030430788</v>
+        <v>0.27427631273297615</v>
       </c>
       <c r="O8">
         <f t="shared" si="9"/>
-        <v>676</v>
+        <v>36.360900000000001</v>
       </c>
       <c r="P8">
         <f t="shared" si="10"/>
-        <v>2.0068703270316623</v>
+        <v>0.62009399892876738</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" si="2"/>
-        <v>0.29553601655121758</v>
+        <v>2.3152989904908359</v>
       </c>
       <c r="V8" s="6">
         <f>POWER(E8-U8,2)</f>
-        <v>1.5715171097240187E-4</v>
+        <v>3.4335715876922926E-2</v>
       </c>
       <c r="W8" s="6">
         <f t="shared" si="12"/>
-        <v>0.32977035193464138</v>
+        <v>2.325143280518025</v>
       </c>
       <c r="X8" s="6">
         <f t="shared" si="4"/>
-        <v>2.1874658200902153E-3</v>
+        <v>3.8080899931336634E-2</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" si="11"/>
-        <v>0.34293289019858902</v>
+        <v>2.2796959057658595</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" si="5"/>
-        <v>3.5919513275561314E-3</v>
+        <v>2.2408864203061107E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B9, IF($C$3=2,Додаток!$C9,IF($C$3=3,Додаток!$D9,IF($C$3=4,Додаток!$E9,IF($C$3=5,Додаток!$F9,IF($C$3=6,Додаток!$H9,IF($C$3=7,Додаток!$I9,IF($C$3=8,Додаток!$J9,IF($C$3=9,Додаток!$K9,IF($C$3=10,Додаток!$L9))))))))))</f>
-        <v>53</v>
+        <v>2.46</v>
       </c>
       <c r="E9">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B9, IF($F$3=2,Додаток!$C9,IF($F$3=3,Додаток!$D9,IF($F$3=4,Додаток!$E9,IF($F$3=5,Додаток!$F9,IF($F$3=6,Додаток!$H9,IF($F$3=7,Додаток!$I9,IF($F$3=8,Додаток!$J9,IF($F$3=9,Додаток!$K9,IF($F$3=10,Додаток!$L9))))))))))</f>
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>1.725094521081469</v>
+        <v>0.40823996531184958</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>0.63042787502502384</v>
       </c>
       <c r="K9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10.2582</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>1.5508525725615587</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>-1.725094521081469</v>
+        <v>0.2573658538318388</v>
       </c>
       <c r="O9">
         <f t="shared" si="9"/>
-        <v>2809</v>
+        <v>6.0515999999999996</v>
       </c>
       <c r="P9">
         <f t="shared" si="10"/>
-        <v>2.975951106665303</v>
+        <v>0.16665986927782014</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="2"/>
-        <v>0.32125446932305229</v>
+        <v>2.4872950040372421</v>
       </c>
       <c r="V9" s="6">
         <f t="shared" si="3"/>
-        <v>0.10320443406003595</v>
+        <v>2.8314961034380248</v>
       </c>
       <c r="W9" s="6">
         <f t="shared" si="12"/>
-        <v>0.35594938083319699</v>
+        <v>2.4776122657522484</v>
       </c>
       <c r="X9" s="6">
         <f t="shared" si="4"/>
-        <v>0.1266999617155363</v>
+        <v>2.8641762430322384</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="11"/>
-        <v>0.3821404915617771</v>
+        <v>2.613700756698452</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="5"/>
-        <v>0.14603135529107664</v>
+        <v>2.4220673347009707</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B10, IF($C$3=2,Додаток!$C10,IF($C$3=3,Додаток!$D10,IF($C$3=4,Додаток!$E10,IF($C$3=5,Додаток!$F10,IF($C$3=6,Додаток!$H10,IF($C$3=7,Додаток!$I10,IF($C$3=8,Додаток!$J10,IF($C$3=9,Додаток!$K10,IF($C$3=10,Додаток!$L10))))))))))</f>
-        <v>24</v>
+        <v>7.88</v>
       </c>
       <c r="E10">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B10, IF($F$3=2,Додаток!$C10,IF($F$3=3,Додаток!$D10,IF($F$3=4,Додаток!$E10,IF($F$3=5,Додаток!$F10,IF($F$3=6,Додаток!$H10,IF($F$3=7,Додаток!$I10,IF($F$3=8,Додаток!$J10,IF($F$3=9,Додаток!$K10,IF($F$3=10,Додаток!$L10))))))))))</f>
-        <v>5.2999999999999999E-2</v>
+        <v>1.49</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>1.3820170425748683</v>
+        <v>0.90200289135072942</v>
       </c>
       <c r="I10">
         <f t="shared" si="7"/>
-        <v>-0.81530856918240124</v>
+        <v>0.20139712432045151</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>1.272</v>
+        <v>11.741199999999999</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>-19.567405660377631</v>
+        <v>1.5870093396451579</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>-1.1267703375674096</v>
+        <v>0.18166078844676956</v>
       </c>
       <c r="O10">
         <f t="shared" si="9"/>
-        <v>576</v>
+        <v>62.0944</v>
       </c>
       <c r="P10">
         <f t="shared" si="10"/>
-        <v>1.9099711059673854</v>
+        <v>0.81360921600507574</v>
       </c>
       <c r="R10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S10" s="6">
         <f>SUM($K$5:$K$24) - 20*S4*S5</f>
-        <v>101.17425000000014</v>
+        <v>-13.959440000000143</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="2"/>
-        <v>0.29363094597552614</v>
+        <v>2.2261694036390565</v>
       </c>
       <c r="V10" s="6">
         <f t="shared" si="3"/>
-        <v>5.7903252161076585E-2</v>
+        <v>0.54194539085428406</v>
       </c>
       <c r="W10" s="6">
         <f t="shared" si="12"/>
-        <v>0.32790956063813081</v>
+        <v>2.2498609939303931</v>
       </c>
       <c r="X10" s="6">
         <f t="shared" si="4"/>
-        <v>7.5575266530250124E-2</v>
+        <v>0.57738873009688485</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="11"/>
-        <v>0.33878588422995154</v>
+        <v>2.1885456554646248</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="5"/>
-        <v>8.1673571625095268E-2</v>
+        <v>0.48796603276850226</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B11, IF($C$3=2,Додаток!$C11,IF($C$3=3,Додаток!$D11,IF($C$3=4,Додаток!$E11,IF($C$3=5,Додаток!$F11,IF($C$3=6,Додаток!$H11,IF($C$3=7,Додаток!$I11,IF($C$3=8,Додаток!$J11,IF($C$3=9,Додаток!$K11,IF($C$3=10,Додаток!$L11))))))))))</f>
-        <v>53</v>
+        <v>2.95</v>
       </c>
       <c r="E11">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B11, IF($F$3=2,Додаток!$C11,IF($F$3=3,Додаток!$D11,IF($F$3=4,Додаток!$E11,IF($F$3=5,Додаток!$F11,IF($F$3=6,Додаток!$H11,IF($F$3=7,Додаток!$I11,IF($F$3=8,Додаток!$J11,IF($F$3=9,Додаток!$K11,IF($F$3=10,Додаток!$L11))))))))))</f>
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>1.725094521081469</v>
+        <v>0.48429983934678589</v>
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>0.38560627359831223</v>
       </c>
       <c r="K11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.8735000000000008</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>1.1375385071150212</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>-1.725094521081469</v>
+        <v>0.18674905635477537</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>2809</v>
+        <v>8.7025000000000006</v>
       </c>
       <c r="P11">
         <f t="shared" si="10"/>
-        <v>2.975951106665303</v>
+        <v>0.23454633439132261</v>
       </c>
       <c r="R11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S11" s="6">
         <f>SUM($L$5:$L$24) - 20*S4*S7</f>
-        <v>130.51411379225647</v>
+        <v>-2.2387258304800426</v>
       </c>
       <c r="U11" s="6">
         <f t="shared" si="2"/>
-        <v>0.32125446932305229</v>
+        <v>2.4636877080602844</v>
       </c>
       <c r="V11" s="6">
         <f t="shared" si="3"/>
-        <v>0.10320443406003595</v>
+        <v>1.7872403286411803E-2</v>
       </c>
       <c r="W11" s="6">
         <f t="shared" si="12"/>
-        <v>0.35594938083319699</v>
+        <v>2.4561074081351988</v>
       </c>
       <c r="X11" s="6">
         <f t="shared" si="4"/>
-        <v>0.1266999617155363</v>
+        <v>1.5903078386577583E-2</v>
       </c>
       <c r="Y11" s="6">
         <f t="shared" si="11"/>
-        <v>0.3821404915617771</v>
+        <v>2.5422952332078741</v>
       </c>
       <c r="Z11" s="6">
         <f t="shared" si="5"/>
-        <v>0.14603135529107664</v>
+        <v>4.5069266042785619E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B12, IF($C$3=2,Додаток!$C12,IF($C$3=3,Додаток!$D12,IF($C$3=4,Додаток!$E12,IF($C$3=5,Додаток!$F12,IF($C$3=6,Додаток!$H12,IF($C$3=7,Додаток!$I12,IF($C$3=8,Додаток!$J12,IF($C$3=9,Додаток!$K12,IF($C$3=10,Додаток!$L12))))))))))</f>
-        <v>13</v>
+        <v>10.24</v>
       </c>
       <c r="E12">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B12, IF($F$3=2,Додаток!$C12,IF($F$3=3,Додаток!$D12,IF($F$3=4,Додаток!$E12,IF($F$3=5,Додаток!$F12,IF($F$3=6,Додаток!$H12,IF($F$3=7,Додаток!$I12,IF($F$3=8,Додаток!$J12,IF($F$3=9,Додаток!$K12,IF($F$3=10,Додаток!$L12))))))))))</f>
-        <v>0.48199999999999998</v>
+        <v>2.63</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>1.1172712956557642</v>
+        <v>1.0145205387579237</v>
       </c>
       <c r="I12">
         <f t="shared" si="7"/>
-        <v>-0.23507701535011155</v>
+        <v>0.43616264704075602</v>
       </c>
       <c r="K12">
         <f t="shared" si="8"/>
-        <v>6.266</v>
+        <v>26.9312</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>-3.0560011995514502</v>
+        <v>4.466305505697342</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>-0.26264480151910913</v>
+        <v>0.44249596366186994</v>
       </c>
       <c r="O12">
         <f t="shared" si="9"/>
-        <v>169</v>
+        <v>104.85760000000001</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
-        <v>1.24829514809631</v>
+        <v>1.0292519235616677</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S12" s="6">
         <f>SUM($M5:$M$24) - 20*S6*S7</f>
-        <v>0.41537661098288581</v>
+        <v>-0.17239459376746158</v>
       </c>
       <c r="U12" s="6">
         <f t="shared" si="2"/>
-        <v>0.28315305780922312</v>
+        <v>2.1124689577092193</v>
       </c>
       <c r="V12" s="6">
         <f t="shared" si="3"/>
-        <v>3.9540106418622156E-2</v>
+        <v>0.26783837973458174</v>
       </c>
       <c r="W12" s="6">
         <f t="shared" si="12"/>
-        <v>0.31786131284670127</v>
+        <v>2.1573526127973408</v>
       </c>
       <c r="X12" s="6">
         <f t="shared" si="4"/>
-        <v>2.6941508620408467E-2</v>
+        <v>0.22339555262950034</v>
       </c>
       <c r="Y12" s="6">
         <f t="shared" si="11"/>
-        <v>0.30864030795288727</v>
+        <v>2.1028372127095811</v>
       </c>
       <c r="Z12" s="6">
         <f t="shared" si="5"/>
-        <v>3.0053582826669756E-2</v>
+        <v>0.27790060430380331</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B13, IF($C$3=2,Додаток!$C13,IF($C$3=3,Додаток!$D13,IF($C$3=4,Додаток!$E13,IF($C$3=5,Додаток!$F13,IF($C$3=6,Додаток!$H13,IF($C$3=7,Додаток!$I13,IF($C$3=8,Додаток!$J13,IF($C$3=9,Додаток!$K13,IF($C$3=10,Додаток!$L13))))))))))</f>
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="E13">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B13, IF($F$3=2,Додаток!$C13,IF($F$3=3,Додаток!$D13,IF($F$3=4,Додаток!$E13,IF($F$3=5,Додаток!$F13,IF($F$3=6,Додаток!$H13,IF($F$3=7,Додаток!$I13,IF($F$3=8,Додаток!$J13,IF($F$3=9,Додаток!$K13,IF($F$3=10,Додаток!$L13))))))))))</f>
-        <v>0.52900000000000003</v>
+        <v>1.6</v>
       </c>
       <c r="H13">
         <f t="shared" si="6"/>
-        <v>1.1172712956557642</v>
+        <v>0.41497334797081797</v>
       </c>
       <c r="I13">
         <f t="shared" si="7"/>
-        <v>-0.20134935455473107</v>
+        <v>0.23044892137827397</v>
       </c>
       <c r="K13">
         <f t="shared" si="8"/>
-        <v>6.8770000000000007</v>
+        <v>4</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>-2.617541609211504</v>
+        <v>0.57612230344568494</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>-0.22496185424281623</v>
+        <v>9.5630160440606155E-2</v>
       </c>
       <c r="O13">
         <f t="shared" si="9"/>
-        <v>169</v>
+        <v>6.25</v>
       </c>
       <c r="P13">
         <f t="shared" si="10"/>
-        <v>1.24829514809631</v>
+        <v>0.17220287952610958</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="2"/>
-        <v>0.28315305780922312</v>
+        <v>2.4853678778350417</v>
       </c>
       <c r="V13" s="6">
         <f t="shared" si="3"/>
-        <v>6.0440718984555206E-2</v>
+        <v>0.7838762791021251</v>
       </c>
       <c r="W13" s="6">
         <f t="shared" si="12"/>
-        <v>0.31786131284670127</v>
+        <v>2.4758497314403907</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" si="4"/>
-        <v>4.4579545212818567E-2</v>
+        <v>0.76711275206420426</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="11"/>
-        <v>0.30864030795288727</v>
+        <v>2.6072798558470316</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="5"/>
-        <v>4.8558393879098369E-2</v>
+        <v>1.0146127079952165</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B14, IF($C$3=2,Додаток!$C14,IF($C$3=3,Додаток!$D14,IF($C$3=4,Додаток!$E14,IF($C$3=5,Додаток!$F14,IF($C$3=6,Додаток!$H14,IF($C$3=7,Додаток!$I14,IF($C$3=8,Додаток!$J14,IF($C$3=9,Додаток!$K14,IF($C$3=10,Додаток!$L14))))))))))</f>
-        <v>73</v>
+        <v>10.5</v>
       </c>
       <c r="E14">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B14, IF($F$3=2,Додаток!$C14,IF($F$3=3,Додаток!$D14,IF($F$3=4,Додаток!$E14,IF($F$3=5,Додаток!$F14,IF($F$3=6,Додаток!$H14,IF($F$3=7,Додаток!$I14,IF($F$3=8,Додаток!$J14,IF($F$3=9,Додаток!$K14,IF($F$3=10,Додаток!$L14))))))))))</f>
-        <v>0.38600000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="H14">
         <f t="shared" si="6"/>
-        <v>1.8639173769578605</v>
+        <v>1.0253058652647702</v>
       </c>
       <c r="I14">
         <f t="shared" si="7"/>
-        <v>-0.31336373073770663</v>
+        <v>0.1903316981702915</v>
       </c>
       <c r="K14">
         <f t="shared" si="8"/>
-        <v>28.178000000000001</v>
+        <v>15.225</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>-22.875552343852583</v>
+        <v>1.9984828307880607</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>-0.58408410303035541</v>
+        <v>0.1951482064798038</v>
       </c>
       <c r="O14">
         <f t="shared" si="9"/>
-        <v>5329</v>
+        <v>110.25</v>
       </c>
       <c r="P14">
         <f t="shared" si="10"/>
-        <v>3.4741879881254714</v>
+        <v>1.0512521173463392</v>
       </c>
       <c r="R14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S14">
         <f>SUM($O5:$O24) - 20*S4*S4</f>
-        <v>106215.75</v>
+        <v>289.74625499999979</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="2"/>
-        <v>0.34030517507996694</v>
+        <v>2.099942637394915</v>
       </c>
       <c r="V14" s="6">
         <f t="shared" si="3"/>
-        <v>2.0880170244724754E-3</v>
+        <v>0.42242543190385806</v>
       </c>
       <c r="W14" s="6">
         <f t="shared" si="12"/>
-        <v>0.37667216333010295</v>
+        <v>2.1473965141262772</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" si="4"/>
-        <v>8.700853694027629E-5</v>
+        <v>0.48636189791548279</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" si="11"/>
-        <v>0.40119745669457424</v>
+        <v>2.0948121331309015</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="5"/>
-        <v>2.3096268998345907E-4</v>
+        <v>0.41578268703282356</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B15, IF($C$3=2,Додаток!$C15,IF($C$3=3,Додаток!$D15,IF($C$3=4,Додаток!$E15,IF($C$3=5,Додаток!$F15,IF($C$3=6,Додаток!$H15,IF($C$3=7,Додаток!$I15,IF($C$3=8,Додаток!$J15,IF($C$3=9,Додаток!$K15,IF($C$3=10,Додаток!$L15))))))))))</f>
-        <v>93</v>
+        <v>6.07</v>
       </c>
       <c r="E15">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B15, IF($F$3=2,Додаток!$C15,IF($F$3=3,Додаток!$D15,IF($F$3=4,Додаток!$E15,IF($F$3=5,Додаток!$F15,IF($F$3=6,Додаток!$H15,IF($F$3=7,Додаток!$I15,IF($F$3=8,Додаток!$J15,IF($F$3=9,Додаток!$K15,IF($F$3=10,Додаток!$L15))))))))))</f>
-        <v>0.45</v>
+        <v>1.93</v>
       </c>
       <c r="H15">
         <f t="shared" si="6"/>
-        <v>1.9689496809813425</v>
+        <v>0.79028516403324167</v>
       </c>
       <c r="I15">
         <f t="shared" si="7"/>
-        <v>-0.25963731050575611</v>
+        <v>0.30749603791321289</v>
       </c>
       <c r="K15">
         <f t="shared" si="8"/>
-        <v>41.85</v>
+        <v>11.7151</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>-24.146269877035319</v>
+        <v>1.8665009501332024</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>-0.51121279969116229</v>
+        <v>0.24300955676181535</v>
       </c>
       <c r="O15">
         <f t="shared" si="9"/>
-        <v>8649</v>
+        <v>36.844900000000003</v>
       </c>
       <c r="P15">
         <f t="shared" si="10"/>
-        <v>3.8767628462365304</v>
+        <v>0.62455064049104769</v>
       </c>
       <c r="R15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S15" s="6">
         <f>SUM($P$5:$P$24) - 20*S6*S6</f>
-        <v>2.7327446421507702</v>
+        <v>1.1304914191604638</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" si="2"/>
-        <v>0.35935588083688152</v>
+        <v>2.3133718642886354</v>
       </c>
       <c r="V15" s="6">
         <f t="shared" si="3"/>
-        <v>8.2163563388576236E-3</v>
+        <v>0.14697398632814393</v>
       </c>
       <c r="W15" s="6">
         <f t="shared" si="12"/>
-        <v>0.39860139184865634</v>
+        <v>2.3234892102389311</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" si="4"/>
-        <v>2.6418169198953721E-3</v>
+        <v>0.15483375857445775</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" si="11"/>
-        <v>0.41623872498761139</v>
+        <v>2.277398590636849</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" si="5"/>
-        <v>1.1398236904621366E-3</v>
+        <v>0.12068578077646905</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B16, IF($C$3=2,Додаток!$C16,IF($C$3=3,Додаток!$D16,IF($C$3=4,Додаток!$E16,IF($C$3=5,Додаток!$F16,IF($C$3=6,Додаток!$H16,IF($C$3=7,Додаток!$I16,IF($C$3=8,Додаток!$J16,IF($C$3=9,Додаток!$K16,IF($C$3=10,Додаток!$L16))))))))))</f>
-        <v>170</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E16">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B16, IF($F$3=2,Додаток!$C16,IF($F$3=3,Додаток!$D16,IF($F$3=4,Додаток!$E16,IF($F$3=5,Додаток!$F16,IF($F$3=6,Додаток!$H16,IF($F$3=7,Додаток!$I16,IF($F$3=8,Додаток!$J16,IF($F$3=9,Додаток!$K16,IF($F$3=10,Додаток!$L16))))))))))</f>
-        <v>0.58599999999999997</v>
+        <v>1.5</v>
       </c>
       <c r="H16">
         <f t="shared" si="6"/>
-        <v>2.230704313612569</v>
+        <v>0.96142109406644827</v>
       </c>
       <c r="I16">
         <f t="shared" si="7"/>
-        <v>-0.16367588429324834</v>
+        <v>0.20411998265592479</v>
       </c>
       <c r="K16">
         <f t="shared" si="8"/>
-        <v>99.61999999999999</v>
+        <v>13.575000000000001</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>-27.824900329852216</v>
+        <v>1.8472858430361194</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>-0.36511250112730081</v>
+        <v>0.19624525704588366</v>
       </c>
       <c r="O16">
         <f t="shared" si="9"/>
-        <v>28900</v>
+        <v>81.902500000000018</v>
       </c>
       <c r="P16">
         <f t="shared" si="10"/>
-        <v>4.9760417347697228</v>
+        <v>0.92433052011592631</v>
       </c>
       <c r="U16" s="6">
         <f t="shared" si="2"/>
-        <v>0.43270109800100276</v>
+        <v>2.1698009622246879</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" si="3"/>
-        <v>2.3500553354098151E-2</v>
+        <v>0.44863332899711778</v>
       </c>
       <c r="W16" s="6">
         <f t="shared" si="12"/>
-        <v>0.49562551532596677</v>
+        <v>2.203513297817878</v>
       </c>
       <c r="X16" s="6">
         <f t="shared" si="4"/>
-        <v>8.1675474800970618E-3</v>
+        <v>0.49493096020658628</v>
       </c>
       <c r="Y16" s="6">
         <f t="shared" si="11"/>
-        <v>0.45620627580234874</v>
+        <v>2.1428276178431931</v>
       </c>
       <c r="Z16" s="6">
         <f t="shared" si="5"/>
-        <v>1.6846410841095952E-2</v>
+        <v>0.41322734626195429</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B17, IF($C$3=2,Додаток!$C17,IF($C$3=3,Додаток!$D17,IF($C$3=4,Додаток!$E17,IF($C$3=5,Додаток!$F17,IF($C$3=6,Додаток!$H17,IF($C$3=7,Додаток!$I17,IF($C$3=8,Додаток!$J17,IF($C$3=9,Додаток!$K17,IF($C$3=10,Додаток!$L17))))))))))</f>
-        <v>267</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B17, IF($F$3=2,Додаток!$C17,IF($F$3=3,Додаток!$D17,IF($F$3=4,Додаток!$E17,IF($F$3=5,Додаток!$F17,IF($F$3=6,Додаток!$H17,IF($F$3=7,Додаток!$I17,IF($F$3=8,Додаток!$J17,IF($F$3=9,Додаток!$K17,IF($F$3=10,Додаток!$L17))))))))))</f>
-        <v>0.39400000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H17">
         <f t="shared" si="6"/>
-        <v>2.426673888021373</v>
+        <v>1.2810333672477277</v>
       </c>
       <c r="I17">
         <f t="shared" si="7"/>
-        <v>-0.30627305107635305</v>
+        <v>0.38021124171160603</v>
       </c>
       <c r="K17">
         <f t="shared" si="8"/>
-        <v>105.19800000000001</v>
+        <v>43.699999999999996</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>-81.774904637386271</v>
+        <v>7.2240135925205147</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>-0.74322481565162224</v>
+        <v>0.48706328723525838</v>
       </c>
       <c r="O17">
         <f t="shared" si="9"/>
-        <v>71289</v>
+        <v>361</v>
       </c>
       <c r="P17">
         <f t="shared" si="10"/>
-        <v>5.8887461588047669</v>
+        <v>1.6410464880020514</v>
       </c>
       <c r="R17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" si="2"/>
-        <v>0.52509702092203869</v>
+        <v>1.6904283194272807</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" si="3"/>
-        <v>1.7186428894633447E-2</v>
+        <v>0.37157763375624914</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" si="12"/>
-        <v>0.65214442519569826</v>
+        <v>1.8460223423329394</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" si="4"/>
-        <v>6.6638544259617447E-2</v>
+        <v>0.20609571366087073</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" si="11"/>
-        <v>0.48861038107199201</v>
+        <v>1.9136730597097975</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" si="5"/>
-        <v>8.95112420658754E-3</v>
+        <v>0.14924850479398954</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B18, IF($C$3=2,Додаток!$C18,IF($C$3=3,Додаток!$D18,IF($C$3=4,Додаток!$E18,IF($C$3=5,Додаток!$F18,IF($C$3=6,Додаток!$H18,IF($C$3=7,Додаток!$I18,IF($C$3=8,Додаток!$J18,IF($C$3=9,Додаток!$K18,IF($C$3=10,Додаток!$L18))))))))))</f>
-        <v>271</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E18">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B18, IF($F$3=2,Додаток!$C18,IF($F$3=3,Додаток!$D18,IF($F$3=4,Додаток!$E18,IF($F$3=5,Додаток!$F18,IF($F$3=6,Додаток!$H18,IF($F$3=7,Додаток!$I18,IF($F$3=8,Додаток!$J18,IF($F$3=9,Додаток!$K18,IF($F$3=10,Додаток!$L18))))))))))</f>
-        <v>0.56999999999999995</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
-        <v>2.4331295175804857</v>
+        <v>0.68033551341456322</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
-        <v>-0.17392519729917361</v>
+        <v>0.40654018043395523</v>
       </c>
       <c r="K18">
         <f t="shared" si="8"/>
-        <v>154.47</v>
+        <v>11.490500000000003</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>-47.13372846807605</v>
+        <v>1.9066734462352501</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>-0.42318253139962908</v>
+        <v>0.2765837223791841</v>
       </c>
       <c r="O18">
         <f t="shared" si="9"/>
-        <v>73441</v>
+        <v>21.996100000000002</v>
       </c>
       <c r="P18">
         <f t="shared" si="10"/>
-        <v>5.9201192493214467</v>
+        <v>0.46285641081305734</v>
       </c>
       <c r="R18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S18" s="6">
         <f>S10/S14</f>
-        <v>9.5253528784573045E-4</v>
+        <v>-4.8178155055015819E-2</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="2"/>
-        <v>0.52890716207342159</v>
+        <v>2.3798577182645571</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="3"/>
-        <v>1.688621328860037E-3</v>
+        <v>4.919939687054278E-3</v>
       </c>
       <c r="W18" s="6">
         <f t="shared" si="12"/>
-        <v>0.65956688528481699</v>
+        <v>2.3812403699539151</v>
       </c>
       <c r="X18" s="6">
         <f t="shared" si="4"/>
-        <v>8.0222269396235755E-3</v>
+        <v>4.7278867240744885E-3</v>
       </c>
       <c r="Y18" s="6">
         <f t="shared" si="11"/>
-        <v>0.48971601738199477</v>
+        <v>2.3687593117129855</v>
       </c>
       <c r="Z18" s="6">
         <f t="shared" si="5"/>
-        <v>6.4455178650081576E-3</v>
+        <v>6.6000494333478864E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B19, IF($C$3=2,Додаток!$C19,IF($C$3=3,Додаток!$D19,IF($C$3=4,Додаток!$E19,IF($C$3=5,Додаток!$F19,IF($C$3=6,Додаток!$H19,IF($C$3=7,Додаток!$I19,IF($C$3=8,Додаток!$J19,IF($C$3=9,Додаток!$K19,IF($C$3=10,Додаток!$L19))))))))))</f>
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B19, IF($F$3=2,Додаток!$C19,IF($F$3=3,Додаток!$D19,IF($F$3=4,Додаток!$E19,IF($F$3=5,Додаток!$F19,IF($F$3=6,Додаток!$H19,IF($F$3=7,Додаток!$I19,IF($F$3=8,Додаток!$J19,IF($F$3=9,Додаток!$K19,IF($F$3=10,Додаток!$L19))))))))))</f>
-        <v>0.54</v>
+        <v>2.21</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
-        <v>1.909020854211156</v>
+        <v>0.85125834871907524</v>
       </c>
       <c r="I19">
         <f t="shared" si="7"/>
-        <v>-0.19382002601611281</v>
+        <v>0.36361197989214433</v>
       </c>
       <c r="K19">
         <f t="shared" si="8"/>
-        <v>43.74</v>
+        <v>15.469999999999999</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>-15.699422107305137</v>
+        <v>2.5452838592450102</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>-0.37000647162850814</v>
+        <v>0.30952773357746038</v>
       </c>
       <c r="O19">
         <f t="shared" si="9"/>
-        <v>6561</v>
+        <v>49</v>
       </c>
       <c r="P19">
         <f t="shared" si="10"/>
-        <v>3.6443606218130915</v>
+        <v>0.72464077626392676</v>
       </c>
       <c r="R19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S19" s="6">
         <f>S11/S14</f>
-        <v>1.2287642255715981E-3</v>
+        <v>-7.7265048015203652E-3</v>
       </c>
       <c r="U19" s="6">
         <f t="shared" si="2"/>
-        <v>0.34792545738273278</v>
+        <v>2.2685661800874706</v>
       </c>
       <c r="V19" s="6">
         <f t="shared" si="3"/>
-        <v>3.6892629921632412E-2</v>
+        <v>3.4299974500380391E-3</v>
       </c>
       <c r="W19" s="6">
         <f t="shared" si="12"/>
-        <v>0.3852952368430777</v>
+        <v>2.285362046004709</v>
       </c>
       <c r="X19" s="6">
         <f t="shared" si="4"/>
-        <v>2.3933563743439433E-2</v>
+        <v>5.6794379780158877E-3</v>
       </c>
       <c r="Y19" s="6">
         <f t="shared" si="11"/>
-        <v>0.40758933327311275</v>
+        <v>2.2284257320353591</v>
       </c>
       <c r="Z19" s="6">
         <f t="shared" si="5"/>
-        <v>1.7532584663058817E-2</v>
+        <v>3.3950760103885981E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B20, IF($C$3=2,Додаток!$C20,IF($C$3=3,Додаток!$D20,IF($C$3=4,Додаток!$E20,IF($C$3=5,Додаток!$F20,IF($C$3=6,Додаток!$H20,IF($C$3=7,Додаток!$I20,IF($C$3=8,Додаток!$J20,IF($C$3=9,Додаток!$K20,IF($C$3=10,Додаток!$L20))))))))))</f>
-        <v>138</v>
+        <v>4.54</v>
       </c>
       <c r="E20">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B20, IF($F$3=2,Додаток!$C20,IF($F$3=3,Додаток!$D20,IF($F$3=4,Додаток!$E20,IF($F$3=5,Додаток!$F20,IF($F$3=6,Додаток!$H20,IF($F$3=7,Додаток!$I20,IF($F$3=8,Додаток!$J20,IF($F$3=9,Додаток!$K20,IF($F$3=10,Додаток!$L20))))))))))</f>
-        <v>0.39</v>
+        <v>1.7</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
-        <v>2.1401936785786311</v>
+        <v>0.66651798055488087</v>
       </c>
       <c r="I20">
         <f t="shared" si="7"/>
-        <v>-0.30980391997148632</v>
+        <v>0.25527250510330607</v>
       </c>
       <c r="K20">
         <f t="shared" si="8"/>
-        <v>53.82</v>
+        <v>7.718</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>-42.75294095606511</v>
+        <v>1.1589371731690095</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>-0.66304039112185509</v>
+        <v>0.17014371459264108</v>
       </c>
       <c r="O20">
         <f t="shared" si="9"/>
-        <v>19044</v>
+        <v>20.611599999999999</v>
       </c>
       <c r="P20">
         <f t="shared" si="10"/>
-        <v>4.5804289818279331</v>
+        <v>0.44424621840295658</v>
       </c>
       <c r="R20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S20" s="6">
         <f>S12/S15</f>
-        <v>0.15199978972640824</v>
+        <v>-0.15249526961954907</v>
       </c>
       <c r="U20" s="6">
         <f t="shared" si="2"/>
-        <v>0.40221996878993937</v>
+        <v>2.3870844415228092</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="3"/>
-        <v>1.4932763722709207E-4</v>
+        <v>0.47208502978271066</v>
       </c>
       <c r="W20" s="6">
         <f t="shared" si="12"/>
-        <v>0.45272366943210318</v>
+        <v>2.387603530487127</v>
       </c>
       <c r="X20" s="6">
         <f t="shared" si="4"/>
-        <v>3.9342587070277536E-3</v>
+        <v>0.47279861513836152</v>
       </c>
       <c r="Y20" s="6">
         <f t="shared" si="11"/>
-        <v>0.44197190115534868</v>
+        <v>2.3805302729577655</v>
       </c>
       <c r="Z20" s="6">
         <f t="shared" si="5"/>
-        <v>2.7010785097013319E-3</v>
+        <v>0.46312145241197095</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B21, IF($C$3=2,Додаток!$C21,IF($C$3=3,Додаток!$D21,IF($C$3=4,Додаток!$E21,IF($C$3=5,Додаток!$F21,IF($C$3=6,Додаток!$H21,IF($C$3=7,Додаток!$I21,IF($C$3=8,Додаток!$J21,IF($C$3=9,Додаток!$K21,IF($C$3=10,Додаток!$L21))))))))))</f>
-        <v>89</v>
+        <v>4.42</v>
       </c>
       <c r="E21">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B21, IF($F$3=2,Додаток!$C21,IF($F$3=3,Додаток!$D21,IF($F$3=4,Додаток!$E21,IF($F$3=5,Додаток!$F21,IF($F$3=6,Додаток!$H21,IF($F$3=7,Додаток!$I21,IF($F$3=8,Додаток!$J21,IF($F$3=9,Додаток!$K21,IF($F$3=10,Додаток!$L21))))))))))</f>
-        <v>0.35</v>
+        <v>3.1</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
-        <v>1.9498777040368747</v>
+        <v>0.65513843481138212</v>
       </c>
       <c r="I21">
         <f t="shared" si="7"/>
-        <v>-0.34678748622465638</v>
+        <v>0.50514997831990605</v>
       </c>
       <c r="K21">
         <f t="shared" si="8"/>
-        <v>31.15</v>
+        <v>13.702</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>-30.864086273994417</v>
+        <v>2.2327629041739847</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>-0.67619318742845225</v>
+        <v>0.33094316614150687</v>
       </c>
       <c r="O21">
         <f t="shared" si="9"/>
-        <v>7921</v>
+        <v>19.5364</v>
       </c>
       <c r="P21">
         <f t="shared" si="10"/>
-        <v>3.802023060700114</v>
+        <v>0.4292063687671076</v>
       </c>
       <c r="U21" s="6">
         <f t="shared" si="2"/>
-        <v>0.35554573968549863</v>
+        <v>2.3928658201294111</v>
       </c>
       <c r="V21" s="6">
         <f t="shared" si="3"/>
-        <v>3.0755228659314688E-5</v>
+        <v>0.50003874834125051</v>
       </c>
       <c r="W21" s="6">
         <f t="shared" si="12"/>
-        <v>0.39411571649340221</v>
+        <v>2.3927062993727817</v>
       </c>
       <c r="X21" s="6">
         <f t="shared" si="4"/>
-        <v>1.946196441726242E-3</v>
+        <v>0.50026437894694531</v>
       </c>
       <c r="Y21" s="6">
         <f t="shared" si="11"/>
-        <v>0.41346653011396051</v>
+        <v>2.3902744825404763</v>
       </c>
       <c r="Z21" s="6">
         <f t="shared" si="5"/>
-        <v>4.0280004447062583E-3</v>
+        <v>0.5037103101331889</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B22, IF($C$3=2,Додаток!$C22,IF($C$3=3,Додаток!$D22,IF($C$3=4,Додаток!$E22,IF($C$3=5,Додаток!$F22,IF($C$3=6,Додаток!$H22,IF($C$3=7,Додаток!$I22,IF($C$3=8,Додаток!$J22,IF($C$3=9,Додаток!$K22,IF($C$3=10,Додаток!$L22))))))))))</f>
-        <v>112</v>
+        <v>6.51</v>
       </c>
       <c r="E22">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B22, IF($F$3=2,Додаток!$C22,IF($F$3=3,Додаток!$D22,IF($F$3=4,Додаток!$E22,IF($F$3=5,Додаток!$F22,IF($F$3=6,Додаток!$H22,IF($F$3=7,Додаток!$I22,IF($F$3=8,Додаток!$J22,IF($F$3=9,Додаток!$K22,IF($F$3=10,Додаток!$L22))))))))))</f>
-        <v>0.54300000000000004</v>
+        <v>2.14</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
-        <v>2.0496056125949731</v>
+        <v>0.82020145948564016</v>
       </c>
       <c r="I22">
         <f t="shared" si="7"/>
-        <v>-0.19178902707577791</v>
+        <v>0.35024801833416286</v>
       </c>
       <c r="K22">
         <f t="shared" si="8"/>
-        <v>60.816000000000003</v>
+        <v>13.9314</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>-21.480371032487128</v>
+        <v>2.2801145993554002</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>-0.39309186632864368</v>
+        <v>0.28727393581963362</v>
       </c>
       <c r="O22">
         <f t="shared" si="9"/>
-        <v>12544</v>
+        <v>42.380099999999999</v>
       </c>
       <c r="P22">
         <f t="shared" si="10"/>
-        <v>4.2008831671808151</v>
+        <v>0.67273043414237421</v>
       </c>
       <c r="R22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="2"/>
-        <v>0.37745405130595039</v>
+        <v>2.2921734760644283</v>
       </c>
       <c r="V22" s="6">
         <f t="shared" si="3"/>
-        <v>2.7405461129012917E-2</v>
+        <v>2.3156766817531108E-2</v>
       </c>
       <c r="W22" s="6">
         <f t="shared" si="12"/>
-        <v>0.4206155565700937</v>
+        <v>2.3053719141562228</v>
       </c>
       <c r="X22" s="6">
         <f t="shared" si="4"/>
-        <v>1.4977951993647945E-2</v>
+        <v>2.7347869991693075E-2</v>
       </c>
       <c r="Y22" s="6">
         <f t="shared" si="11"/>
-        <v>0.42816799069575134</v>
+        <v>2.2532239871183655</v>
       </c>
       <c r="Z22" s="6">
         <f t="shared" si="5"/>
-        <v>1.3186390360851058E-2</v>
+        <v>1.2819671258979761E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B23, IF($C$3=2,Додаток!$C23,IF($C$3=3,Додаток!$D23,IF($C$3=4,Додаток!$E23,IF($C$3=5,Додаток!$F23,IF($C$3=6,Додаток!$H23,IF($C$3=7,Додаток!$I23,IF($C$3=8,Додаток!$J23,IF($C$3=9,Додаток!$K23,IF($C$3=10,Додаток!$L23))))))))))</f>
-        <v>21</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E23">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B23, IF($F$3=2,Додаток!$C23,IF($F$3=3,Додаток!$D23,IF($F$3=4,Додаток!$E23,IF($F$3=5,Додаток!$F23,IF($F$3=6,Додаток!$H23,IF($F$3=7,Додаток!$I23,IF($F$3=8,Додаток!$J23,IF($F$3=9,Додаток!$K23,IF($F$3=10,Додаток!$L23))))))))))</f>
-        <v>0.53800000000000003</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
-        <v>1.3242824552976926</v>
+        <v>0.64836001098093154</v>
       </c>
       <c r="I23">
         <f t="shared" si="7"/>
-        <v>-0.19517932127883766</v>
+        <v>0.37657695705651195</v>
       </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>11.298</v>
+        <v>9.9179999999999975</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>-4.0987657468555909</v>
+        <v>1.6381097631958268</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>-0.2584725508064763</v>
+        <v>0.24415744001232587</v>
       </c>
       <c r="O23">
         <f t="shared" si="9"/>
-        <v>441</v>
+        <v>18.922499999999996</v>
       </c>
       <c r="P23">
         <f t="shared" si="10"/>
-        <v>1.7537240214092853</v>
+        <v>0.42037070383919367</v>
       </c>
       <c r="R23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S23" s="6">
         <f>S5-S18*S4</f>
-        <v>0.2707700990672286</v>
+        <v>2.6058132654725812</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="2"/>
-        <v>0.29077334011198896</v>
+        <v>2.3962382909832622</v>
       </c>
       <c r="V23" s="6">
         <f t="shared" si="3"/>
-        <v>6.1121021359382299E-2</v>
+        <v>1.351134029070959E-2</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="12"/>
-        <v>0.32513804241273958</v>
+        <v>2.3956879493291909</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" si="4"/>
-        <v>4.5310212987880669E-2</v>
+        <v>1.3383701619993495E-2</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="11"/>
-        <v>0.33197894701118608</v>
+        <v>2.3961004834174386</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="5"/>
-        <v>4.244467427461969E-2</v>
+        <v>1.347932224976299E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24">
         <f xml:space="preserve"> IF($C$3=1, Додаток!$B24, IF($C$3=2,Додаток!$C24,IF($C$3=3,Додаток!$D24,IF($C$3=4,Додаток!$E24,IF($C$3=5,Додаток!$F24,IF($C$3=6,Додаток!$H24,IF($C$3=7,Додаток!$I24,IF($C$3=8,Додаток!$J24,IF($C$3=9,Додаток!$K24,IF($C$3=10,Додаток!$L24))))))))))</f>
-        <v>57</v>
+        <v>5.12</v>
       </c>
       <c r="E24">
         <f xml:space="preserve"> IF($F$3=1, Додаток!$B24, IF($F$3=2,Додаток!$C24,IF($F$3=3,Додаток!$D24,IF($F$3=4,Додаток!$E24,IF($F$3=5,Додаток!$F24,IF($F$3=6,Додаток!$H24,IF($F$3=7,Додаток!$I24,IF($F$3=8,Додаток!$J24,IF($F$3=9,Додаток!$K24,IF($F$3=10,Додаток!$L24))))))))))</f>
-        <v>0.48099999999999998</v>
+        <v>1.95</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
-        <v>1.7566361082458481</v>
+        <v>0.71767050300226209</v>
       </c>
       <c r="I24">
         <f t="shared" si="7"/>
-        <v>-0.23582386760966931</v>
+        <v>0.31175386105575426</v>
       </c>
       <c r="K24">
         <f t="shared" si="8"/>
-        <v>27.416999999999998</v>
+        <v>9.984</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>-13.44196045375115</v>
+        <v>1.5961797686054617</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>-0.41425672102933364</v>
+        <v>0.22373655027678049</v>
       </c>
       <c r="O24">
         <f t="shared" si="9"/>
-        <v>3249</v>
+        <v>26.214400000000001</v>
       </c>
       <c r="P24">
         <f t="shared" si="10"/>
-        <v>3.0857704167931193</v>
+        <v>0.51505095087951991</v>
       </c>
       <c r="R24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S24" s="6">
         <f>S7-S19*S4</f>
-        <v>-0.51373626212815104</v>
+        <v>0.41304054419894798</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="2"/>
-        <v>0.32506461047443524</v>
+        <v>2.3591411115909002</v>
       </c>
       <c r="V24" s="6">
         <f t="shared" si="3"/>
-        <v>2.4315845706489606E-2</v>
+        <v>0.1673964491938375</v>
       </c>
       <c r="W24" s="6">
         <f t="shared" si="12"/>
-        <v>0.36000066145587206</v>
+        <v>2.3630931409267601</v>
       </c>
       <c r="X24" s="6">
         <f t="shared" si="4"/>
-        <v>1.464083992811648E-2</v>
+        <v>0.17064594308073616</v>
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="11"/>
-        <v>0.38639019490106691</v>
+        <v>2.3372830212402613</v>
       </c>
       <c r="Z24" s="6">
         <f t="shared" si="5"/>
-        <v>8.9510152208581023E-3</v>
+        <v>0.14998813854098475</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="R25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S25" s="6">
         <f>S7-S20*S6</f>
-        <v>-0.67986651169054668</v>
+        <v>0.4768716181602925</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
@@ -16946,7 +16955,7 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -16954,7 +16963,7 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -16962,7 +16971,7 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -16970,7 +16979,7 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -16979,7 +16988,7 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -16987,7 +16996,7 @@
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -16995,7 +17004,7 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
@@ -17003,7 +17012,7 @@
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="20:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="20:26" x14ac:dyDescent="0.25">
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
@@ -17011,7 +17020,7 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="20:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="20:26" x14ac:dyDescent="0.25">
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -17019,21 +17028,21 @@
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="36" spans="20:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="20:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T36" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V36" s="22">
         <f>SUM(V5:V24)</f>
-        <v>0.66031890665367432</v>
+        <v>8.8995799351988154</v>
       </c>
       <c r="X36" s="22">
         <f>SUM(X5:X24)</f>
-        <v>0.72397181974690628</v>
+        <v>8.8642233312716385</v>
       </c>
       <c r="Z36" s="22">
         <f>SUM(Z5:Z24)</f>
-        <v>0.74235002365032732</v>
+        <v>8.6095687715676874</v>
       </c>
     </row>
   </sheetData>
@@ -17051,56 +17060,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8671F1-86E9-4F25-8946-65F0467AF3D9}">
   <dimension ref="B3:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="H3" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="H3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
     </row>
-    <row r="4" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="K4" s="17"/>
@@ -17114,30 +17123,30 @@
       <c r="U4" s="19"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1305</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>54</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7.42</v>
-      </c>
-      <c r="I5">
-        <v>0.125</v>
-      </c>
-      <c r="J5">
-        <v>0.47</v>
+    <row r="5" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="30">
+        <v>199</v>
+      </c>
+      <c r="C5" s="30">
+        <v>3.2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1.62</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1.75</v>
+      </c>
+      <c r="H5" s="30">
+        <v>3</v>
+      </c>
+      <c r="I5" s="30">
+        <v>2.16</v>
+      </c>
+      <c r="J5" s="30">
+        <v>2</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -17148,30 +17157,30 @@
       <c r="U5" s="19"/>
       <c r="V5" s="20"/>
     </row>
-    <row r="6" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>1243</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>2.4</v>
-      </c>
-      <c r="I6">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.317</v>
+    <row r="6" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="30">
+        <v>43921</v>
+      </c>
+      <c r="C6" s="30">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D6" s="30">
+        <v>9</v>
+      </c>
+      <c r="E6" s="30">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F6" s="30">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H6" s="30">
+        <v>118</v>
+      </c>
+      <c r="I6" s="30">
+        <v>3.24</v>
+      </c>
+      <c r="J6" s="30">
+        <v>9</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -17182,30 +17191,30 @@
       <c r="U6" s="19"/>
       <c r="V6" s="20"/>
     </row>
-    <row r="7" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1846</v>
-      </c>
-      <c r="C7">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>59</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6.35</v>
-      </c>
-      <c r="I7">
-        <v>0.254</v>
-      </c>
-      <c r="J7">
-        <v>0.34</v>
+    <row r="7" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="30">
+        <v>20098</v>
+      </c>
+      <c r="C7" s="30">
+        <v>5.7</v>
+      </c>
+      <c r="D7" s="30">
+        <v>7</v>
+      </c>
+      <c r="E7" s="30">
+        <v>3.84</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2.15</v>
+      </c>
+      <c r="H7" s="30">
+        <v>96</v>
+      </c>
+      <c r="I7" s="30">
+        <v>3.4</v>
+      </c>
+      <c r="J7" s="30">
+        <v>9</v>
       </c>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -17216,30 +17225,30 @@
       <c r="U7" s="19"/>
       <c r="V7" s="20"/>
     </row>
-    <row r="8" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>930</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.62</v>
-      </c>
-      <c r="I8">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="J8">
-        <v>0.64100000000000001</v>
+    <row r="8" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="30">
+        <v>21220</v>
+      </c>
+      <c r="C8" s="30">
+        <v>9.1</v>
+      </c>
+      <c r="D8" s="30">
+        <v>9</v>
+      </c>
+      <c r="E8" s="30">
+        <v>6.03</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2.72</v>
+      </c>
+      <c r="H8" s="30">
+        <v>66</v>
+      </c>
+      <c r="I8" s="30">
+        <v>2.13</v>
+      </c>
+      <c r="J8" s="30">
+        <v>5</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -17250,30 +17259,30 @@
       <c r="U8" s="19"/>
       <c r="V8" s="20"/>
     </row>
-    <row r="9" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1272</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="30">
+        <v>611</v>
+      </c>
+      <c r="C9" s="30">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D9" s="30">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>53</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.69</v>
+      <c r="E9" s="30">
+        <v>2.46</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H9" s="30">
+        <v>68</v>
+      </c>
+      <c r="I9" s="30">
+        <v>4.17</v>
+      </c>
+      <c r="J9" s="30">
+        <v>3</v>
       </c>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -17284,30 +17293,30 @@
       <c r="U9" s="19"/>
       <c r="V9" s="20"/>
     </row>
-    <row r="10" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>1006</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="30">
+        <v>5541</v>
+      </c>
+      <c r="C10" s="30">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2.74</v>
-      </c>
-      <c r="I10">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J10">
-        <v>0.5</v>
+      <c r="D10" s="30">
+        <v>4</v>
+      </c>
+      <c r="E10" s="30">
+        <v>7.88</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2.48</v>
+      </c>
+      <c r="H10" s="30">
+        <v>86</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1.49</v>
+      </c>
+      <c r="J10" s="30">
+        <v>4</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -17318,30 +17327,30 @@
       <c r="U10" s="19"/>
       <c r="V10" s="20"/>
     </row>
-    <row r="11" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>1395</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.8</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.78</v>
+    <row r="11" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="30">
+        <v>5043</v>
+      </c>
+      <c r="C11" s="30">
+        <v>4.2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>7</v>
+      </c>
+      <c r="E11" s="30">
+        <v>2.95</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1.74</v>
+      </c>
+      <c r="H11" s="30">
+        <v>15</v>
+      </c>
+      <c r="I11" s="30">
+        <v>2.33</v>
+      </c>
+      <c r="J11" s="30">
+        <v>8</v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
@@ -17352,30 +17361,30 @@
       <c r="U11" s="19"/>
       <c r="V11" s="20"/>
     </row>
-    <row r="12" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>726</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+    <row r="12" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="30">
+        <v>7064</v>
+      </c>
+      <c r="C12" s="30">
+        <v>3.6</v>
+      </c>
+      <c r="D12" s="30">
+        <v>6</v>
+      </c>
+      <c r="E12" s="30">
+        <v>10.24</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2.94</v>
+      </c>
+      <c r="H12" s="30">
         <v>13</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>6.625</v>
-      </c>
-      <c r="I12">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="J12">
-        <v>0.63400000000000001</v>
+      <c r="I12" s="30">
+        <v>2.63</v>
+      </c>
+      <c r="J12" s="30">
+        <v>7</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -17386,30 +17395,30 @@
       <c r="U12" s="19"/>
       <c r="V12" s="20"/>
     </row>
-    <row r="13" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>412</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>13</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>6.75</v>
-      </c>
-      <c r="I13">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="J13">
-        <v>0.23</v>
+    <row r="13" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="30">
+        <v>1408</v>
+      </c>
+      <c r="C13" s="30">
+        <v>7.1</v>
+      </c>
+      <c r="D13" s="30">
+        <v>9</v>
+      </c>
+      <c r="E13" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2.09</v>
+      </c>
+      <c r="H13" s="30">
+        <v>53</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1.6</v>
+      </c>
+      <c r="J13" s="30">
+        <v>3</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
@@ -17420,30 +17429,30 @@
       <c r="U13" s="19"/>
       <c r="V13" s="20"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>1471</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>73</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>6.0289999999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="J14">
-        <v>0.438</v>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="30">
+        <v>67923</v>
+      </c>
+      <c r="C14" s="30">
+        <v>6.9</v>
+      </c>
+      <c r="D14" s="30">
+        <v>2</v>
+      </c>
+      <c r="E14" s="30">
+        <v>10.5</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2.33</v>
+      </c>
+      <c r="H14" s="30">
+        <v>114</v>
+      </c>
+      <c r="I14" s="30">
+        <v>1.45</v>
+      </c>
+      <c r="J14" s="30">
+        <v>4</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
@@ -17454,30 +17463,30 @@
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>770</v>
-      </c>
-      <c r="C15">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>93</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <v>5.0439999999999996</v>
-      </c>
-      <c r="I15">
-        <v>0.45</v>
-      </c>
-      <c r="J15">
-        <v>0.41199999999999998</v>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="30">
+        <v>62274</v>
+      </c>
+      <c r="C15" s="30">
+        <v>4.3</v>
+      </c>
+      <c r="D15" s="30">
+        <v>5</v>
+      </c>
+      <c r="E15" s="30">
+        <v>6.07</v>
+      </c>
+      <c r="F15" s="30">
+        <v>2.12</v>
+      </c>
+      <c r="H15" s="30">
+        <v>15</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1.93</v>
+      </c>
+      <c r="J15" s="30">
+        <v>6</v>
       </c>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
@@ -17488,30 +17497,30 @@
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>2199</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>170</v>
-      </c>
-      <c r="F16">
-        <v>22</v>
-      </c>
-      <c r="H16">
-        <v>7.8479999999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="J16">
-        <v>0.27700000000000002</v>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="30">
+        <v>2475</v>
+      </c>
+      <c r="C16" s="30">
+        <v>6.8</v>
+      </c>
+      <c r="D16" s="30">
+        <v>9</v>
+      </c>
+      <c r="E16" s="30">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F16" s="30">
+        <v>2.89</v>
+      </c>
+      <c r="H16" s="30">
+        <v>141</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="30">
+        <v>3</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
@@ -17522,30 +17531,30 @@
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>2399</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>267</v>
-      </c>
-      <c r="F17">
-        <v>41</v>
-      </c>
-      <c r="H17">
-        <v>5.2750000000000004</v>
-      </c>
-      <c r="I17">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="J17">
-        <v>0.318</v>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="30">
+        <v>983</v>
+      </c>
+      <c r="C17" s="30">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D17" s="30">
+        <v>8</v>
+      </c>
+      <c r="E17" s="30">
+        <v>19</v>
+      </c>
+      <c r="F17" s="30">
+        <v>2.56</v>
+      </c>
+      <c r="H17" s="30">
+        <v>112</v>
+      </c>
+      <c r="I17" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J17" s="30">
+        <v>4</v>
       </c>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
@@ -17556,30 +17565,30 @@
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
     </row>
-    <row r="18" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>2002</v>
-      </c>
-      <c r="C18">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>271</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>5.7850000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J18">
-        <v>0.2</v>
+    <row r="18" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="30">
+        <v>3160</v>
+      </c>
+      <c r="C18" s="30">
+        <v>5.9</v>
+      </c>
+      <c r="D18" s="30">
+        <v>1</v>
+      </c>
+      <c r="E18" s="30">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F18" s="30">
+        <v>1.73</v>
+      </c>
+      <c r="H18" s="30">
+        <v>116</v>
+      </c>
+      <c r="I18" s="30">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J18" s="30">
+        <v>9</v>
       </c>
       <c r="O18" s="19"/>
       <c r="P18" s="21"/>
@@ -17590,30 +17599,30 @@
       <c r="U18" s="19"/>
       <c r="V18" s="21"/>
     </row>
-    <row r="19" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>1043</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>81</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>6.9729999999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.54</v>
-      </c>
-      <c r="J19">
-        <v>0.17399999999999999</v>
+    <row r="19" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="30">
+        <v>34563</v>
+      </c>
+      <c r="C19" s="30">
+        <v>5.2</v>
+      </c>
+      <c r="D19" s="30">
+        <v>6</v>
+      </c>
+      <c r="E19" s="30">
+        <v>7</v>
+      </c>
+      <c r="F19" s="30">
+        <v>2.38</v>
+      </c>
+      <c r="H19" s="30">
+        <v>77</v>
+      </c>
+      <c r="I19" s="30">
+        <v>2.21</v>
+      </c>
+      <c r="J19" s="30">
+        <v>7</v>
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="21"/>
@@ -17624,30 +17633,30 @@
       <c r="U19" s="19"/>
       <c r="V19" s="21"/>
     </row>
-    <row r="20" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>830</v>
-      </c>
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>138</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>3.915</v>
-      </c>
-      <c r="I20">
-        <v>0.39</v>
-      </c>
-      <c r="J20">
-        <v>0.22900000000000001</v>
+    <row r="20" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="30">
+        <v>67345</v>
+      </c>
+      <c r="C20" s="30">
+        <v>8</v>
+      </c>
+      <c r="D20" s="30">
+        <v>8</v>
+      </c>
+      <c r="E20" s="30">
+        <v>4.54</v>
+      </c>
+      <c r="F20" s="30">
+        <v>2.21</v>
+      </c>
+      <c r="H20" s="30">
+        <v>43</v>
+      </c>
+      <c r="I20" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="J20" s="30">
+        <v>8</v>
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="21"/>
@@ -17658,30 +17667,30 @@
       <c r="U20" s="19"/>
       <c r="V20" s="21"/>
     </row>
-    <row r="21" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>471</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+    <row r="21" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="30">
+        <v>23453</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.8</v>
+      </c>
+      <c r="D21" s="30">
+        <v>7</v>
+      </c>
+      <c r="E21" s="30">
+        <v>4.42</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1.94</v>
+      </c>
+      <c r="H21" s="30">
         <v>89</v>
       </c>
-      <c r="F21">
+      <c r="I21" s="30">
+        <v>3.1</v>
+      </c>
+      <c r="J21" s="30">
         <v>7</v>
-      </c>
-      <c r="H21">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="I21">
-        <v>0.35</v>
-      </c>
-      <c r="J21">
-        <v>0.21299999999999999</v>
       </c>
       <c r="O21" s="19"/>
       <c r="P21" s="21"/>
@@ -17692,30 +17701,30 @@
       <c r="U21" s="19"/>
       <c r="V21" s="21"/>
     </row>
-    <row r="22" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>662</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
+    <row r="22" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="30">
+        <v>341</v>
+      </c>
+      <c r="C22" s="30">
+        <v>2.9</v>
+      </c>
+      <c r="D22" s="30">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>112</v>
-      </c>
-      <c r="F22">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <v>4.173</v>
-      </c>
-      <c r="I22">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="J22">
-        <v>0.29399999999999998</v>
+      <c r="E22" s="30">
+        <v>6.51</v>
+      </c>
+      <c r="F22" s="30">
+        <v>1.51</v>
+      </c>
+      <c r="H22" s="30">
+        <v>118</v>
+      </c>
+      <c r="I22" s="30">
+        <v>2.14</v>
+      </c>
+      <c r="J22" s="30">
+        <v>7</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="21"/>
@@ -17726,30 +17735,30 @@
       <c r="U22" s="19"/>
       <c r="V22" s="21"/>
     </row>
-    <row r="23" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>157</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>21</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>4.8460000000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="J23">
-        <v>0.113</v>
+    <row r="23" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="30">
+        <v>67700</v>
+      </c>
+      <c r="C23" s="30">
+        <v>3.6</v>
+      </c>
+      <c r="D23" s="30">
+        <v>5</v>
+      </c>
+      <c r="E23" s="30">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F23" s="30">
+        <v>1.98</v>
+      </c>
+      <c r="H23" s="30">
+        <v>43</v>
+      </c>
+      <c r="I23" s="30">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J23" s="30">
+        <v>9</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="21"/>
@@ -17760,30 +17769,30 @@
       <c r="U23" s="19"/>
       <c r="V23" s="21"/>
     </row>
-    <row r="24" spans="2:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>568</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>57</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>4.2960000000000003</v>
-      </c>
-      <c r="I24">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="J24">
-        <v>0.13100000000000001</v>
+    <row r="24" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="30">
+        <v>234</v>
+      </c>
+      <c r="C24" s="30">
+        <v>2.6</v>
+      </c>
+      <c r="D24" s="30">
+        <v>7</v>
+      </c>
+      <c r="E24" s="30">
+        <v>5.12</v>
+      </c>
+      <c r="F24" s="30">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="H24" s="30">
+        <v>51</v>
+      </c>
+      <c r="I24" s="30">
+        <v>1.95</v>
+      </c>
+      <c r="J24" s="30">
+        <v>7</v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="21"/>
@@ -17794,7 +17803,7 @@
       <c r="U24" s="19"/>
       <c r="V24" s="21"/>
     </row>
-    <row r="25" spans="2:22" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="O25" s="19"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="19"/>
@@ -17804,7 +17813,7 @@
       <c r="U25" s="19"/>
       <c r="V25" s="21"/>
     </row>
-    <row r="26" spans="2:22" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="O26" s="19"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="19"/>
@@ -17814,7 +17823,7 @@
       <c r="U26" s="19"/>
       <c r="V26" s="21"/>
     </row>
-    <row r="27" spans="2:22" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="O27" s="19"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="19"/>
